--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_16_26.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_16_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1523022.784681288</v>
+        <v>1520021.76821967</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673428</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -668,10 +668,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-7.43558536845538e-13</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-1.636279380359609e-12</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>-1.636279380359609e-12</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>-1.636279380359609e-12</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -741,16 +741,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-1.636279380359609e-12</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-1.570828205145224e-12</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-1.636279380359609e-12</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>-1.636279380359609e-12</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -817,10 +817,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-1.636279380359609e-12</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-1.570828205145224e-12</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>-1.636279380359609e-12</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>-1.636279380359609e-12</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>6.05642108929943</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -914,34 +914,34 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
+        <v>6.056421089299432</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -978,58 +978,58 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="T6" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="U6" t="n">
-        <v>6.876045741711437</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1057,26 +1057,26 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>6.05642108929943</v>
+      </c>
+      <c r="F7" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>6.05642108929943</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>13.02032636526109</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>14.36185758280975</v>
       </c>
       <c r="G8" t="n">
         <v>13.99145537648747</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>14.36185758280975</v>
       </c>
       <c r="S8" t="n">
-        <v>6.14428062354966</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>14.36185758280975</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>14.36185758280975</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1209,25 +1209,25 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
         <v>14.36185758280975</v>
-      </c>
-      <c r="C9" t="n">
-        <v>14.36185758280975</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>12.64992415893882</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>14.36185758280975</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>12.64992415893882</v>
       </c>
     </row>
     <row r="10">
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>12.64992415893882</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>14.36185758280975</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>14.36185758280975</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1312,29 +1312,29 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
         <v>14.36185758280975</v>
       </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
@@ -1348,13 +1348,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>12.64992415893882</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>14.36185758280975</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>14.36185758280975</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>339.6343861628274</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.7803544956409</v>
       </c>
       <c r="H11" t="n">
-        <v>293.1599470173725</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>36.12671821135692</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>105.9662665295219</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.2991178962956</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.983862266277</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>313.4128442952018</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>44.86382646516698</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>42.08202290347464</v>
       </c>
       <c r="G13" t="n">
         <v>165.9623940245094</v>
       </c>
       <c r="H13" t="n">
-        <v>144.1912047201446</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>94.44538142994566</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,16 +1579,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.2779975468616</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2083792473664</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1625,7 +1625,7 @@
         <v>284.5290980711239</v>
       </c>
       <c r="I14" t="n">
-        <v>3.636465166049931</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>86.76202189506417</v>
+        <v>86.76202189506414</v>
       </c>
       <c r="T14" t="n">
-        <v>30.46673742921033</v>
+        <v>34.10320259526171</v>
       </c>
       <c r="U14" t="n">
         <v>250.9164419888987</v>
@@ -1704,7 +1704,7 @@
         <v>84.5114810500734</v>
       </c>
       <c r="I15" t="n">
-        <v>0.6880879866389336</v>
+        <v>0.6880879866389193</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>118.3630148393049</v>
+        <v>118.3630148393048</v>
       </c>
       <c r="T15" t="n">
         <v>188.5941918336396</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5843638319352</v>
       </c>
       <c r="H16" t="n">
-        <v>68.04850569993552</v>
+        <v>140.8301726443486</v>
       </c>
       <c r="I16" t="n">
-        <v>83.07698254780536</v>
+        <v>80.96327993123965</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>69.08320597548449</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>182.0758529065578</v>
+        <v>182.0758529065577</v>
       </c>
       <c r="T16" t="n">
         <v>217.6627776331355</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1877594186805</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>370.9119300921775</v>
+        <v>370.9119300921776</v>
       </c>
       <c r="C17" t="n">
         <v>353.4509801997045</v>
@@ -1850,16 +1850,16 @@
         <v>342.8611300493799</v>
       </c>
       <c r="E17" t="n">
-        <v>370.1084585009587</v>
+        <v>370.1084585009588</v>
       </c>
       <c r="F17" t="n">
         <v>395.0541341704084</v>
       </c>
       <c r="G17" t="n">
-        <v>398.1156894571098</v>
+        <v>398.1156894571099</v>
       </c>
       <c r="H17" t="n">
-        <v>272.7071864998208</v>
+        <v>272.7071864998209</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>74.94011032376109</v>
+        <v>74.9401103237611</v>
       </c>
       <c r="T17" t="n">
         <v>187.7880530222021</v>
@@ -1901,16 +1901,16 @@
         <v>239.0945304175957</v>
       </c>
       <c r="V17" t="n">
-        <v>315.9303468988318</v>
+        <v>315.9303468988319</v>
       </c>
       <c r="W17" t="n">
-        <v>337.4190571461099</v>
+        <v>337.41905714611</v>
       </c>
       <c r="X17" t="n">
-        <v>357.909189107165</v>
+        <v>357.909189107166</v>
       </c>
       <c r="Y17" t="n">
-        <v>374.4160270847505</v>
+        <v>374.4160270847506</v>
       </c>
     </row>
     <row r="18">
@@ -2002,7 +2002,7 @@
         <v>168.0100686106342</v>
       </c>
       <c r="C19" t="n">
-        <v>155.4249095273248</v>
+        <v>138.9819913930042</v>
       </c>
       <c r="D19" t="n">
         <v>136.7935614469093</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.26129440418143</v>
+        <v>57.26129440418144</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>170.2539413352547</v>
       </c>
       <c r="T19" t="n">
         <v>205.8408660618325</v>
       </c>
       <c r="U19" t="n">
-        <v>274.3658478473774</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>240.315731752525</v>
       </c>
       <c r="W19" t="n">
-        <v>274.7010867652879</v>
+        <v>274.701086765288</v>
       </c>
       <c r="X19" t="n">
-        <v>93.33291917129068</v>
+        <v>213.8877438177341</v>
       </c>
       <c r="Y19" t="n">
         <v>206.7627417807917</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>370.9119300921775</v>
+        <v>370.9119300921776</v>
       </c>
       <c r="C20" t="n">
         <v>353.4509801997045</v>
@@ -2087,16 +2087,16 @@
         <v>342.8611300493799</v>
       </c>
       <c r="E20" t="n">
-        <v>370.1084585009587</v>
+        <v>370.1084585009588</v>
       </c>
       <c r="F20" t="n">
         <v>395.0541341704084</v>
       </c>
       <c r="G20" t="n">
-        <v>398.1156894571098</v>
+        <v>398.1156894571099</v>
       </c>
       <c r="H20" t="n">
-        <v>272.7071864998208</v>
+        <v>272.7071864998209</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>74.94011032376106</v>
+        <v>74.9401103237611</v>
       </c>
       <c r="T20" t="n">
-        <v>187.788053022202</v>
+        <v>187.7880530222021</v>
       </c>
       <c r="U20" t="n">
-        <v>239.0945304175956</v>
+        <v>239.0945304175957</v>
       </c>
       <c r="V20" t="n">
-        <v>315.9303468988318</v>
+        <v>315.9303468988319</v>
       </c>
       <c r="W20" t="n">
-        <v>337.4190571461099</v>
+        <v>337.41905714611</v>
       </c>
       <c r="X20" t="n">
         <v>357.909189107166</v>
       </c>
       <c r="Y20" t="n">
-        <v>374.4160270847505</v>
+        <v>374.4160270847506</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>134.4729160703385</v>
       </c>
       <c r="H21" t="n">
-        <v>84.5114810500734</v>
+        <v>84.51148105007339</v>
       </c>
       <c r="I21" t="n">
-        <v>0.6880879866389336</v>
+        <v>0.6880879866388909</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>118.3630148393049</v>
+        <v>118.3630148393048</v>
       </c>
       <c r="T21" t="n">
         <v>188.5941918336396</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>168.0100686106342</v>
+        <v>168.0100686106343</v>
       </c>
       <c r="C22" t="n">
-        <v>155.4249095273247</v>
+        <v>155.4249095273248</v>
       </c>
       <c r="D22" t="n">
-        <v>136.7935614469093</v>
+        <v>114.1959829921056</v>
       </c>
       <c r="E22" t="n">
-        <v>106.9054455595831</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>133.5991364516281</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>153.7624522606321</v>
+        <v>153.7624522606322</v>
       </c>
       <c r="H22" t="n">
-        <v>129.0082610730455</v>
+        <v>129.0082610730456</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.26129440418143</v>
       </c>
       <c r="S22" t="n">
         <v>170.2539413352547</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>205.8408660618325</v>
       </c>
       <c r="U22" t="n">
-        <v>274.3658478473774</v>
+        <v>274.3658478473775</v>
       </c>
       <c r="V22" t="n">
-        <v>240.3157317525249</v>
+        <v>240.315731752525</v>
       </c>
       <c r="W22" t="n">
-        <v>274.7010867652879</v>
+        <v>274.701086765288</v>
       </c>
       <c r="X22" t="n">
-        <v>213.887743817734</v>
+        <v>213.8877438177341</v>
       </c>
       <c r="Y22" t="n">
-        <v>206.7627417807917</v>
+        <v>206.7627417807918</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>370.9119300921775</v>
+        <v>370.9119300921776</v>
       </c>
       <c r="C23" t="n">
         <v>353.4509801997045</v>
@@ -2324,16 +2324,16 @@
         <v>342.8611300493799</v>
       </c>
       <c r="E23" t="n">
-        <v>370.1084585009587</v>
+        <v>370.1084585009588</v>
       </c>
       <c r="F23" t="n">
         <v>395.0541341704084</v>
       </c>
       <c r="G23" t="n">
-        <v>398.1156894571098</v>
+        <v>398.1156894571099</v>
       </c>
       <c r="H23" t="n">
-        <v>272.7071864998208</v>
+        <v>272.7071864998209</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,16 +2375,16 @@
         <v>239.0945304175957</v>
       </c>
       <c r="V23" t="n">
-        <v>315.9303468988318</v>
+        <v>315.9303468988319</v>
       </c>
       <c r="W23" t="n">
-        <v>337.4190571461099</v>
+        <v>337.41905714611</v>
       </c>
       <c r="X23" t="n">
         <v>357.909189107166</v>
       </c>
       <c r="Y23" t="n">
-        <v>374.4160270847505</v>
+        <v>374.4160270847506</v>
       </c>
     </row>
     <row r="24">
@@ -2412,10 +2412,10 @@
         <v>134.4729160703385</v>
       </c>
       <c r="H24" t="n">
-        <v>84.5114810500734</v>
+        <v>84.51148105007339</v>
       </c>
       <c r="I24" t="n">
-        <v>0.6880879866389193</v>
+        <v>0.6880879866388909</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2479,22 +2479,22 @@
         <v>155.4249095273248</v>
       </c>
       <c r="D25" t="n">
-        <v>136.7935614469093</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>134.6120510752661</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>133.5991364516282</v>
+        <v>42.94091201560381</v>
       </c>
       <c r="G25" t="n">
         <v>153.7624522606322</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>129.0082610730455</v>
       </c>
       <c r="I25" t="n">
-        <v>71.25507097650228</v>
+        <v>71.2550709765023</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.26129440418143</v>
+        <v>57.26129440418141</v>
       </c>
       <c r="S25" t="n">
         <v>170.2539413352547</v>
@@ -2530,13 +2530,13 @@
         <v>205.8408660618325</v>
       </c>
       <c r="U25" t="n">
-        <v>274.3658478473774</v>
+        <v>274.3658478473775</v>
       </c>
       <c r="V25" t="n">
-        <v>7.260155867370107</v>
+        <v>240.315731752525</v>
       </c>
       <c r="W25" t="n">
-        <v>274.7010867652879</v>
+        <v>274.701086765288</v>
       </c>
       <c r="X25" t="n">
         <v>213.8877438177341</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>370.9119300921775</v>
+        <v>370.9119300921776</v>
       </c>
       <c r="C26" t="n">
         <v>353.4509801997045</v>
@@ -2561,16 +2561,16 @@
         <v>342.8611300493799</v>
       </c>
       <c r="E26" t="n">
-        <v>370.1084585009587</v>
+        <v>370.1084585009588</v>
       </c>
       <c r="F26" t="n">
         <v>395.0541341704084</v>
       </c>
       <c r="G26" t="n">
-        <v>398.1156894571098</v>
+        <v>398.1156894571099</v>
       </c>
       <c r="H26" t="n">
-        <v>272.7071864998208</v>
+        <v>272.7071864998209</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>74.94011032376109</v>
+        <v>74.9401103237611</v>
       </c>
       <c r="T26" t="n">
         <v>187.7880530222021</v>
@@ -2612,16 +2612,16 @@
         <v>239.0945304175957</v>
       </c>
       <c r="V26" t="n">
-        <v>315.9303468988318</v>
+        <v>315.9303468988319</v>
       </c>
       <c r="W26" t="n">
-        <v>337.4190571461099</v>
+        <v>337.41905714611</v>
       </c>
       <c r="X26" t="n">
         <v>357.909189107166</v>
       </c>
       <c r="Y26" t="n">
-        <v>374.4160270847505</v>
+        <v>374.4160270847506</v>
       </c>
     </row>
     <row r="27">
@@ -2649,10 +2649,10 @@
         <v>134.4729160703385</v>
       </c>
       <c r="H27" t="n">
-        <v>84.5114810500734</v>
+        <v>84.51148105007339</v>
       </c>
       <c r="I27" t="n">
-        <v>0.6880879866389193</v>
+        <v>0.6880879866388909</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>168.0100686106342</v>
+        <v>168.0100686106343</v>
       </c>
       <c r="C28" t="n">
         <v>155.4249095273248</v>
@@ -2719,7 +2719,7 @@
         <v>136.7935614469093</v>
       </c>
       <c r="E28" t="n">
-        <v>134.6120510752661</v>
+        <v>134.6120510752662</v>
       </c>
       <c r="F28" t="n">
         <v>133.5991364516282</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>71.25507097650228</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.26129440418143</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>170.2539413352547</v>
       </c>
       <c r="T28" t="n">
         <v>205.8408660618325</v>
       </c>
       <c r="U28" t="n">
-        <v>274.3658478473774</v>
+        <v>169.8266373429057</v>
       </c>
       <c r="V28" t="n">
-        <v>177.5140972026252</v>
+        <v>240.315731752525</v>
       </c>
       <c r="W28" t="n">
-        <v>274.7010867652879</v>
+        <v>274.701086765288</v>
       </c>
       <c r="X28" t="n">
         <v>213.8877438177341</v>
       </c>
       <c r="Y28" t="n">
-        <v>206.7627417807917</v>
+        <v>206.7627417807918</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>370.9119300921775</v>
+        <v>370.9119300921776</v>
       </c>
       <c r="C29" t="n">
         <v>353.4509801997045</v>
@@ -2798,16 +2798,16 @@
         <v>342.8611300493799</v>
       </c>
       <c r="E29" t="n">
-        <v>370.1084585009587</v>
+        <v>370.1084585009588</v>
       </c>
       <c r="F29" t="n">
         <v>395.0541341704084</v>
       </c>
       <c r="G29" t="n">
-        <v>398.1156894571098</v>
+        <v>398.1156894571099</v>
       </c>
       <c r="H29" t="n">
-        <v>272.7071864998208</v>
+        <v>272.7071864998209</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>74.94011032376103</v>
+        <v>74.9401103237611</v>
       </c>
       <c r="T29" t="n">
-        <v>187.788053022202</v>
+        <v>187.7880530222021</v>
       </c>
       <c r="U29" t="n">
-        <v>239.0945304175956</v>
+        <v>239.0945304175957</v>
       </c>
       <c r="V29" t="n">
-        <v>315.9303468988318</v>
+        <v>315.9303468988319</v>
       </c>
       <c r="W29" t="n">
-        <v>337.4190571461099</v>
+        <v>337.41905714611</v>
       </c>
       <c r="X29" t="n">
         <v>357.909189107166</v>
       </c>
       <c r="Y29" t="n">
-        <v>374.4160270847505</v>
+        <v>374.4160270847506</v>
       </c>
     </row>
     <row r="30">
@@ -2886,10 +2886,10 @@
         <v>134.4729160703385</v>
       </c>
       <c r="H30" t="n">
-        <v>84.5114810500734</v>
+        <v>84.51148105007339</v>
       </c>
       <c r="I30" t="n">
-        <v>0.6880879866389193</v>
+        <v>0.6880879866388909</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>168.0100686106342</v>
+        <v>168.0100686106343</v>
       </c>
       <c r="C31" t="n">
-        <v>155.4249095273247</v>
+        <v>155.4249095273248</v>
       </c>
       <c r="D31" t="n">
         <v>136.7935614469093</v>
       </c>
       <c r="E31" t="n">
-        <v>134.6120510752661</v>
+        <v>134.6120510752662</v>
       </c>
       <c r="F31" t="n">
-        <v>133.5991364516281</v>
+        <v>133.5991364516282</v>
       </c>
       <c r="G31" t="n">
-        <v>153.7624522606321</v>
+        <v>153.7624522606322</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>129.0082610730456</v>
       </c>
       <c r="I31" t="n">
-        <v>8.453436426603423</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.26129440418138</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>170.2539413352547</v>
       </c>
       <c r="T31" t="n">
-        <v>205.8408660618324</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>274.3658478473774</v>
+        <v>246.6592423316926</v>
       </c>
       <c r="V31" t="n">
-        <v>240.3157317525249</v>
+        <v>240.315731752525</v>
       </c>
       <c r="W31" t="n">
-        <v>274.7010867652879</v>
+        <v>274.701086765288</v>
       </c>
       <c r="X31" t="n">
-        <v>213.887743817734</v>
+        <v>213.8877438177341</v>
       </c>
       <c r="Y31" t="n">
-        <v>206.7627417807917</v>
+        <v>206.7627417807918</v>
       </c>
     </row>
     <row r="32">
@@ -3190,22 +3190,22 @@
         <v>155.4249095273249</v>
       </c>
       <c r="D34" t="n">
-        <v>136.7935614469094</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>134.6120510752662</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>111.5673072312859</v>
+        <v>114.1959829921039</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>153.7624522606323</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>129.0082610730456</v>
       </c>
       <c r="I34" t="n">
-        <v>71.25507097650235</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.26129440418148</v>
       </c>
       <c r="S34" t="n">
         <v>170.2539413352548</v>
@@ -3427,19 +3427,19 @@
         <v>155.4249095273248</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>136.7935614469093</v>
       </c>
       <c r="E37" t="n">
         <v>134.6120510752661</v>
       </c>
       <c r="F37" t="n">
-        <v>133.5991364516282</v>
+        <v>45.90114734080585</v>
       </c>
       <c r="G37" t="n">
         <v>153.7624522606322</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>129.0082610730455</v>
       </c>
       <c r="I37" t="n">
         <v>71.2550709765023</v>
@@ -3478,7 +3478,7 @@
         <v>205.8408660618325</v>
       </c>
       <c r="U37" t="n">
-        <v>274.3658478473775</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>240.315731752525</v>
@@ -3487,7 +3487,7 @@
         <v>274.701086765288</v>
       </c>
       <c r="X37" t="n">
-        <v>117.6257293794879</v>
+        <v>213.8877438177341</v>
       </c>
       <c r="Y37" t="n">
         <v>206.7627417807917</v>
@@ -3503,16 +3503,16 @@
         <v>370.9119300921776</v>
       </c>
       <c r="C38" t="n">
-        <v>353.4509801997046</v>
+        <v>353.4509801997045</v>
       </c>
       <c r="D38" t="n">
-        <v>342.86113004938</v>
+        <v>342.8611300493799</v>
       </c>
       <c r="E38" t="n">
         <v>370.1084585009588</v>
       </c>
       <c r="F38" t="n">
-        <v>395.0541341704085</v>
+        <v>395.0541341704084</v>
       </c>
       <c r="G38" t="n">
         <v>398.1156894571099</v>
@@ -3521,7 +3521,7 @@
         <v>272.7071864998209</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1.308393393628648e-12</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>74.94011032376116</v>
+        <v>74.9401103237611</v>
       </c>
       <c r="T38" t="n">
-        <v>187.7880530222026</v>
+        <v>187.7880530222021</v>
       </c>
       <c r="U38" t="n">
-        <v>239.0945304175958</v>
+        <v>239.0945304175957</v>
       </c>
       <c r="V38" t="n">
         <v>315.9303468988319</v>
@@ -3566,7 +3566,7 @@
         <v>337.41905714611</v>
       </c>
       <c r="X38" t="n">
-        <v>357.9091891071661</v>
+        <v>357.909189107166</v>
       </c>
       <c r="Y38" t="n">
         <v>374.4160270847506</v>
@@ -3661,25 +3661,25 @@
         <v>168.0100686106343</v>
       </c>
       <c r="C40" t="n">
-        <v>155.4249095273249</v>
+        <v>155.4249095273248</v>
       </c>
       <c r="D40" t="n">
-        <v>136.7935614469094</v>
+        <v>42.94091201560297</v>
       </c>
       <c r="E40" t="n">
-        <v>134.6120510752662</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>133.5991364516283</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>153.7624522606323</v>
+        <v>153.7624522606322</v>
       </c>
       <c r="H40" t="n">
         <v>129.0082610730456</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>71.25507097650231</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.26129440418148</v>
+        <v>57.26129440418143</v>
       </c>
       <c r="S40" t="n">
-        <v>170.2539413352548</v>
+        <v>170.2539413352547</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>205.8408660618325</v>
       </c>
       <c r="U40" t="n">
-        <v>274.3658478473776</v>
+        <v>274.3658478473775</v>
       </c>
       <c r="V40" t="n">
         <v>240.315731752525</v>
@@ -3724,10 +3724,10 @@
         <v>274.701086765288</v>
       </c>
       <c r="X40" t="n">
-        <v>213.8877438177342</v>
+        <v>213.8877438177341</v>
       </c>
       <c r="Y40" t="n">
-        <v>121.7948418609251</v>
+        <v>206.7627417807918</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>74.94011032376116</v>
+        <v>74.94011032376115</v>
       </c>
       <c r="T41" t="n">
         <v>187.7880530222021</v>
@@ -3901,19 +3901,19 @@
         <v>155.4249095273249</v>
       </c>
       <c r="D43" t="n">
-        <v>136.7935614469094</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>134.6120510752662</v>
+        <v>42.94091201560234</v>
       </c>
       <c r="F43" t="n">
-        <v>106.3844266283043</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>153.7624522606323</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>129.0082610730456</v>
       </c>
       <c r="I43" t="n">
         <v>71.25507097650235</v>
@@ -3949,7 +3949,7 @@
         <v>170.2539413352548</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>205.8408660618326</v>
       </c>
       <c r="U43" t="n">
         <v>274.3658478473776</v>
@@ -3977,16 +3977,16 @@
         <v>370.9119300921776</v>
       </c>
       <c r="C44" t="n">
-        <v>353.4509801997046</v>
+        <v>353.4509801997045</v>
       </c>
       <c r="D44" t="n">
-        <v>342.86113004938</v>
+        <v>342.8611300493799</v>
       </c>
       <c r="E44" t="n">
         <v>370.1084585009588</v>
       </c>
       <c r="F44" t="n">
-        <v>395.0541341704085</v>
+        <v>395.0541341704084</v>
       </c>
       <c r="G44" t="n">
         <v>398.1156894571099</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>74.94011032376115</v>
+        <v>74.94011032376109</v>
       </c>
       <c r="T44" t="n">
         <v>187.7880530222021</v>
       </c>
       <c r="U44" t="n">
-        <v>239.0945304175958</v>
+        <v>239.0945304175957</v>
       </c>
       <c r="V44" t="n">
         <v>315.9303468988319</v>
@@ -4040,7 +4040,7 @@
         <v>337.41905714611</v>
       </c>
       <c r="X44" t="n">
-        <v>357.9091891071661</v>
+        <v>357.909189107166</v>
       </c>
       <c r="Y44" t="n">
         <v>374.4160270847506</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>168.0100686106343</v>
+        <v>168.0100686106342</v>
       </c>
       <c r="C46" t="n">
-        <v>155.4249095273249</v>
+        <v>155.4249095273248</v>
       </c>
       <c r="D46" t="n">
-        <v>136.7935614469094</v>
+        <v>136.7935614469093</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>134.6120510752661</v>
       </c>
       <c r="F46" t="n">
-        <v>133.5991364516283</v>
+        <v>133.5991364516282</v>
       </c>
       <c r="G46" t="n">
-        <v>153.7624522606323</v>
+        <v>153.7624522606322</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>71.25507097650235</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.26129440418148</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>170.2539413352548</v>
+        <v>65.71473083078433</v>
       </c>
       <c r="T46" t="n">
-        <v>205.8408660618326</v>
+        <v>205.8408660618325</v>
       </c>
       <c r="U46" t="n">
-        <v>274.3658478473776</v>
+        <v>274.3658478473775</v>
       </c>
       <c r="V46" t="n">
-        <v>141.8722069426344</v>
+        <v>240.315731752525</v>
       </c>
       <c r="W46" t="n">
         <v>274.701086765288</v>
       </c>
       <c r="X46" t="n">
-        <v>213.8877438177342</v>
+        <v>213.8877438177341</v>
       </c>
       <c r="Y46" t="n">
-        <v>206.7627417807918</v>
+        <v>206.7627417807917</v>
       </c>
     </row>
   </sheetData>
@@ -4541,46 +4541,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="C5" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="D5" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="E5" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="F5" t="n">
-        <v>14.44108515774386</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="G5" t="n">
-        <v>7.495584408540386</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="H5" t="n">
-        <v>7.495584408540386</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="I5" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="K5" t="n">
         <v>7.357368943631237</v>
       </c>
       <c r="L5" t="n">
-        <v>14.16465422792556</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="M5" t="n">
         <v>14.16465422792556</v>
       </c>
       <c r="N5" t="n">
-        <v>14.16465422792556</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="O5" t="n">
-        <v>20.69689768255142</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="P5" t="n">
         <v>27.50418296684575</v>
@@ -4589,28 +4589,28 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R5" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S5" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="T5" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="U5" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="V5" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="W5" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="X5" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="Y5" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4620,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C6" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D6" t="n">
         <v>0.5500836593369149</v>
@@ -4644,52 +4644,52 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="L6" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="M6" t="n">
-        <v>7.357368943631237</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="N6" t="n">
-        <v>14.16465422792556</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="O6" t="n">
-        <v>20.97193951221988</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="P6" t="n">
-        <v>20.97193951221988</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Q6" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="R6" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S6" t="n">
-        <v>27.50418296684575</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="T6" t="n">
-        <v>20.55868221764227</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="U6" t="n">
-        <v>13.6131814684388</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="V6" t="n">
-        <v>13.6131814684388</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="W6" t="n">
-        <v>13.6131814684388</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="X6" t="n">
-        <v>13.6131814684388</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>27.50418296684575</v>
+      </c>
+      <c r="C7" t="n">
+        <v>27.50418296684575</v>
+      </c>
+      <c r="D7" t="n">
+        <v>27.50418296684575</v>
+      </c>
+      <c r="E7" t="n">
+        <v>21.38658590694733</v>
+      </c>
+      <c r="F7" t="n">
         <v>14.44108515774386</v>
-      </c>
-      <c r="C7" t="n">
-        <v>14.44108515774386</v>
-      </c>
-      <c r="D7" t="n">
-        <v>7.495584408540386</v>
-      </c>
-      <c r="E7" t="n">
-        <v>7.495584408540386</v>
-      </c>
-      <c r="F7" t="n">
-        <v>7.495584408540386</v>
       </c>
       <c r="G7" t="n">
         <v>7.495584408540386</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="J7" t="n">
         <v>0.5500836593369149</v>
@@ -4732,13 +4732,13 @@
         <v>7.357368943631237</v>
       </c>
       <c r="M7" t="n">
+        <v>7.357368943631237</v>
+      </c>
+      <c r="N7" t="n">
         <v>14.16465422792556</v>
       </c>
-      <c r="N7" t="n">
+      <c r="O7" t="n">
         <v>20.97193951221988</v>
-      </c>
-      <c r="O7" t="n">
-        <v>27.50418296684575</v>
       </c>
       <c r="P7" t="n">
         <v>27.50418296684575</v>
@@ -4762,13 +4762,13 @@
         <v>27.50418296684575</v>
       </c>
       <c r="W7" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="X7" t="n">
-        <v>14.44108515774386</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Y7" t="n">
-        <v>14.44108515774386</v>
+        <v>27.50418296684575</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.22723256440146</v>
+        <v>29.78865866652097</v>
       </c>
       <c r="C8" t="n">
-        <v>22.22723256440146</v>
+        <v>29.78865866652097</v>
       </c>
       <c r="D8" t="n">
-        <v>22.22723256440146</v>
+        <v>29.78865866652097</v>
       </c>
       <c r="E8" t="n">
-        <v>22.22723256440146</v>
+        <v>29.78865866652097</v>
       </c>
       <c r="F8" t="n">
         <v>15.28173181519799</v>
@@ -4802,52 +4802,52 @@
         <v>1.14894860662478</v>
       </c>
       <c r="J8" t="n">
-        <v>10.27604956872763</v>
+        <v>1.14894860662478</v>
       </c>
       <c r="K8" t="n">
-        <v>24.49428857570928</v>
+        <v>1.14894860662478</v>
       </c>
       <c r="L8" t="n">
-        <v>24.49428857570928</v>
+        <v>1.14894860662478</v>
       </c>
       <c r="M8" t="n">
-        <v>38.71252758269092</v>
+        <v>15.36718761360643</v>
       </c>
       <c r="N8" t="n">
+        <v>19.88385135517285</v>
+      </c>
+      <c r="O8" t="n">
+        <v>29.0109523172757</v>
+      </c>
+      <c r="P8" t="n">
         <v>43.22919132425734</v>
-      </c>
-      <c r="O8" t="n">
-        <v>43.22919132425734</v>
-      </c>
-      <c r="P8" t="n">
-        <v>57.44743033123899</v>
       </c>
       <c r="Q8" t="n">
         <v>57.44743033123899</v>
       </c>
       <c r="R8" t="n">
-        <v>57.44743033123899</v>
+        <v>42.94050347991601</v>
       </c>
       <c r="S8" t="n">
-        <v>51.24108626704741</v>
+        <v>42.94050347991601</v>
       </c>
       <c r="T8" t="n">
-        <v>36.73415941572443</v>
+        <v>42.94050347991601</v>
       </c>
       <c r="U8" t="n">
-        <v>22.22723256440146</v>
+        <v>42.94050347991601</v>
       </c>
       <c r="V8" t="n">
-        <v>22.22723256440146</v>
+        <v>42.94050347991601</v>
       </c>
       <c r="W8" t="n">
-        <v>22.22723256440146</v>
+        <v>42.94050347991601</v>
       </c>
       <c r="X8" t="n">
-        <v>22.22723256440146</v>
+        <v>42.94050347991601</v>
       </c>
       <c r="Y8" t="n">
-        <v>22.22723256440146</v>
+        <v>42.94050347991601</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>28.43357662859303</v>
+        <v>15.65587545794776</v>
       </c>
       <c r="C9" t="n">
-        <v>13.92664977727005</v>
+        <v>15.65587545794776</v>
       </c>
       <c r="D9" t="n">
-        <v>13.92664977727005</v>
+        <v>15.65587545794776</v>
       </c>
       <c r="E9" t="n">
-        <v>13.92664977727005</v>
+        <v>15.65587545794776</v>
       </c>
       <c r="F9" t="n">
-        <v>13.92664977727005</v>
+        <v>15.65587545794776</v>
       </c>
       <c r="G9" t="n">
-        <v>13.92664977727005</v>
+        <v>15.65587545794776</v>
       </c>
       <c r="H9" t="n">
         <v>1.14894860662478</v>
@@ -4923,10 +4923,10 @@
         <v>42.94050347991601</v>
       </c>
       <c r="X9" t="n">
-        <v>42.94050347991601</v>
+        <v>28.43357662859303</v>
       </c>
       <c r="Y9" t="n">
-        <v>42.94050347991601</v>
+        <v>15.65587545794776</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15.65587545794776</v>
+        <v>42.94050347991601</v>
       </c>
       <c r="C10" t="n">
-        <v>15.65587545794776</v>
+        <v>30.16280230927074</v>
       </c>
       <c r="D10" t="n">
         <v>15.65587545794776</v>
       </c>
       <c r="E10" t="n">
-        <v>15.65587545794776</v>
+        <v>1.14894860662478</v>
       </c>
       <c r="F10" t="n">
-        <v>15.65587545794776</v>
+        <v>1.14894860662478</v>
       </c>
       <c r="G10" t="n">
-        <v>15.65587545794776</v>
+        <v>1.14894860662478</v>
       </c>
       <c r="H10" t="n">
-        <v>15.65587545794776</v>
+        <v>1.14894860662478</v>
       </c>
       <c r="I10" t="n">
-        <v>15.65587545794776</v>
+        <v>1.14894860662478</v>
       </c>
       <c r="J10" t="n">
         <v>1.14894860662478</v>
@@ -4969,43 +4969,43 @@
         <v>15.36718761360643</v>
       </c>
       <c r="M10" t="n">
-        <v>29.0109523172757</v>
+        <v>29.58542662058808</v>
       </c>
       <c r="N10" t="n">
-        <v>29.0109523172757</v>
+        <v>43.22919132425734</v>
       </c>
       <c r="O10" t="n">
-        <v>43.22919132425734</v>
+        <v>57.44743033123899</v>
       </c>
       <c r="P10" t="n">
         <v>57.44743033123899</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.44743033123899</v>
+        <v>42.94050347991601</v>
       </c>
       <c r="R10" t="n">
-        <v>57.44743033123899</v>
+        <v>42.94050347991601</v>
       </c>
       <c r="S10" t="n">
-        <v>57.44743033123899</v>
+        <v>42.94050347991601</v>
       </c>
       <c r="T10" t="n">
-        <v>57.44743033123899</v>
+        <v>42.94050347991601</v>
       </c>
       <c r="U10" t="n">
-        <v>57.44743033123899</v>
+        <v>42.94050347991601</v>
       </c>
       <c r="V10" t="n">
-        <v>44.66972916059372</v>
+        <v>42.94050347991601</v>
       </c>
       <c r="W10" t="n">
-        <v>30.16280230927074</v>
+        <v>42.94050347991601</v>
       </c>
       <c r="X10" t="n">
-        <v>15.65587545794776</v>
+        <v>42.94050347991601</v>
       </c>
       <c r="Y10" t="n">
-        <v>15.65587545794776</v>
+        <v>42.94050347991601</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1983.238768853935</v>
+        <v>1591.674187997535</v>
       </c>
       <c r="C11" t="n">
-        <v>1614.276251913523</v>
+        <v>1222.711671057124</v>
       </c>
       <c r="D11" t="n">
-        <v>1614.276251913523</v>
+        <v>864.4459724503731</v>
       </c>
       <c r="E11" t="n">
-        <v>1228.487999315278</v>
+        <v>521.3809359222646</v>
       </c>
       <c r="F11" t="n">
-        <v>817.5020945256708</v>
+        <v>521.3809359222646</v>
       </c>
       <c r="G11" t="n">
-        <v>402.5724435199732</v>
+        <v>106.4512849165667</v>
       </c>
       <c r="H11" t="n">
         <v>106.4512849165667</v>
@@ -5039,52 +5039,52 @@
         <v>69.95965035964048</v>
       </c>
       <c r="J11" t="n">
-        <v>270.7174946210071</v>
+        <v>270.7174946210062</v>
       </c>
       <c r="K11" t="n">
-        <v>622.3399803122979</v>
+        <v>622.3399803122975</v>
       </c>
       <c r="L11" t="n">
-        <v>1095.460528257349</v>
+        <v>1095.460528257348</v>
       </c>
       <c r="M11" t="n">
         <v>1653.567735860386</v>
       </c>
       <c r="N11" t="n">
-        <v>2225.319509944396</v>
+        <v>2225.319509944395</v>
       </c>
       <c r="O11" t="n">
-        <v>2751.873235992966</v>
+        <v>2751.873235992965</v>
       </c>
       <c r="P11" t="n">
-        <v>3166.773658065465</v>
+        <v>3166.773658065464</v>
       </c>
       <c r="Q11" t="n">
-        <v>3430.173849493196</v>
+        <v>3430.173849493197</v>
       </c>
       <c r="R11" t="n">
         <v>3497.982517982024</v>
       </c>
       <c r="S11" t="n">
-        <v>3390.945885123921</v>
+        <v>3497.982517982024</v>
       </c>
       <c r="T11" t="n">
-        <v>3390.945885123921</v>
+        <v>3292.629873642331</v>
       </c>
       <c r="U11" t="n">
-        <v>3390.945885123921</v>
+        <v>3039.110820848112</v>
       </c>
       <c r="V11" t="n">
-        <v>3059.88299778035</v>
+        <v>2708.047933504541</v>
       </c>
       <c r="W11" t="n">
-        <v>3059.88299778035</v>
+        <v>2355.279278234427</v>
       </c>
       <c r="X11" t="n">
-        <v>2686.41723951927</v>
+        <v>1981.813519973347</v>
       </c>
       <c r="Y11" t="n">
-        <v>2369.838608918056</v>
+        <v>1591.674187997535</v>
       </c>
     </row>
     <row r="12">
@@ -5121,25 +5121,25 @@
         <v>170.711800115799</v>
       </c>
       <c r="K12" t="n">
-        <v>295.6874552962357</v>
+        <v>300.1953410801692</v>
       </c>
       <c r="L12" t="n">
-        <v>678.6449326111579</v>
+        <v>683.1528183950913</v>
       </c>
       <c r="M12" t="n">
-        <v>1144.895113872669</v>
+        <v>1149.402999656603</v>
       </c>
       <c r="N12" t="n">
-        <v>1637.894194977206</v>
+        <v>1642.40208076114</v>
       </c>
       <c r="O12" t="n">
-        <v>2066.672243800805</v>
+        <v>2071.180129584738</v>
       </c>
       <c r="P12" t="n">
-        <v>2391.471363478993</v>
+        <v>2395.979249262927</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.671777039818</v>
+        <v>2563.179662823751</v>
       </c>
       <c r="R12" t="n">
         <v>2563.179662823751</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>818.7655264296072</v>
+        <v>596.9548025547724</v>
       </c>
       <c r="C13" t="n">
-        <v>818.7655264296072</v>
+        <v>428.018619626866</v>
       </c>
       <c r="D13" t="n">
-        <v>773.4485300001456</v>
+        <v>428.018619626866</v>
       </c>
       <c r="E13" t="n">
-        <v>625.5354364177525</v>
+        <v>280.1055260444729</v>
       </c>
       <c r="F13" t="n">
-        <v>478.6454889198422</v>
+        <v>237.5984322025793</v>
       </c>
       <c r="G13" t="n">
-        <v>311.0067070769034</v>
+        <v>69.95965035964048</v>
       </c>
       <c r="H13" t="n">
-        <v>165.3590255414038</v>
+        <v>69.95965035964048</v>
       </c>
       <c r="I13" t="n">
         <v>69.95965035964048</v>
@@ -5227,22 +5227,22 @@
         <v>1992.979982484419</v>
       </c>
       <c r="T13" t="n">
-        <v>1992.979982484419</v>
+        <v>1771.487055669407</v>
       </c>
       <c r="U13" t="n">
-        <v>1703.880609507281</v>
+        <v>1771.487055669407</v>
       </c>
       <c r="V13" t="n">
-        <v>1449.196121301394</v>
+        <v>1516.80256746352</v>
       </c>
       <c r="W13" t="n">
-        <v>1449.196121301394</v>
+        <v>1227.38539742656</v>
       </c>
       <c r="X13" t="n">
-        <v>1221.206570403377</v>
+        <v>999.3958465285423</v>
       </c>
       <c r="Y13" t="n">
-        <v>1000.413991259847</v>
+        <v>778.6032673850121</v>
       </c>
     </row>
     <row r="14">
@@ -5252,40 +5252,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2319.668459762137</v>
+        <v>2315.995262624713</v>
       </c>
       <c r="C14" t="n">
-        <v>1950.705942821725</v>
+        <v>1947.032745684301</v>
       </c>
       <c r="D14" t="n">
-        <v>1592.440244214975</v>
+        <v>1588.76704707755</v>
       </c>
       <c r="E14" t="n">
-        <v>1206.65199161673</v>
+        <v>1202.978794479306</v>
       </c>
       <c r="F14" t="n">
-        <v>795.6660868271227</v>
+        <v>791.9928896896986</v>
       </c>
       <c r="G14" t="n">
-        <v>381.587701949938</v>
+        <v>377.9145048125139</v>
       </c>
       <c r="H14" t="n">
-        <v>94.18457258516642</v>
+        <v>90.51137544774225</v>
       </c>
       <c r="I14" t="n">
         <v>90.51137544774225</v>
       </c>
       <c r="J14" t="n">
-        <v>362.0815903273588</v>
+        <v>362.0815903273583</v>
       </c>
       <c r="K14" t="n">
-        <v>819.8334633619838</v>
+        <v>819.8334633619825</v>
       </c>
       <c r="L14" t="n">
-        <v>1424.616900908819</v>
+        <v>1424.616900908818</v>
       </c>
       <c r="M14" t="n">
-        <v>2129.22444191673</v>
+        <v>2129.224441916728</v>
       </c>
       <c r="N14" t="n">
         <v>2849.847077961485</v>
@@ -5306,22 +5306,22 @@
         <v>4437.930366432503</v>
       </c>
       <c r="T14" t="n">
-        <v>4407.155884180775</v>
+        <v>4403.482687043349</v>
       </c>
       <c r="U14" t="n">
-        <v>4153.704932676836</v>
+        <v>4150.031735539411</v>
       </c>
       <c r="V14" t="n">
-        <v>3822.642045333265</v>
+        <v>3818.968848195841</v>
       </c>
       <c r="W14" t="n">
-        <v>3469.873390063151</v>
+        <v>3466.200192925726</v>
       </c>
       <c r="X14" t="n">
-        <v>3096.407631802071</v>
+        <v>3092.734434664646</v>
       </c>
       <c r="Y14" t="n">
-        <v>2706.268299826259</v>
+        <v>2702.595102688835</v>
       </c>
     </row>
     <row r="15">
@@ -5349,7 +5349,7 @@
         <v>176.5715461918961</v>
       </c>
       <c r="H15" t="n">
-        <v>91.20641381808461</v>
+        <v>91.2064138180846</v>
       </c>
       <c r="I15" t="n">
         <v>90.51137544774225</v>
@@ -5358,25 +5358,25 @@
         <v>233.4388880308267</v>
       </c>
       <c r="K15" t="n">
-        <v>233.4388880308267</v>
+        <v>555.879596919505</v>
       </c>
       <c r="L15" t="n">
-        <v>387.1539314657164</v>
+        <v>1035.763462830452</v>
       </c>
       <c r="M15" t="n">
-        <v>966.5126364963895</v>
+        <v>1615.122167861125</v>
       </c>
       <c r="N15" t="n">
-        <v>1575.613887429341</v>
+        <v>1615.122167861125</v>
       </c>
       <c r="O15" t="n">
-        <v>2110.602739245941</v>
+        <v>2150.111019677725</v>
       </c>
       <c r="P15" t="n">
-        <v>2520.645392035809</v>
+        <v>2552.869467234253</v>
       </c>
       <c r="Q15" t="n">
-        <v>2520.645392035809</v>
+        <v>2552.869467234253</v>
       </c>
       <c r="R15" t="n">
         <v>2552.869467234253</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>857.0192471993397</v>
+        <v>1095.657962512252</v>
       </c>
       <c r="C16" t="n">
-        <v>688.0830642714328</v>
+        <v>926.7217795843447</v>
       </c>
       <c r="D16" t="n">
-        <v>537.9664248590971</v>
+        <v>776.6051401720089</v>
       </c>
       <c r="E16" t="n">
-        <v>390.053331276704</v>
+        <v>628.6920465896158</v>
       </c>
       <c r="F16" t="n">
-        <v>243.1633837787937</v>
+        <v>481.8020990917054</v>
       </c>
       <c r="G16" t="n">
-        <v>243.1633837787937</v>
+        <v>314.5451659281344</v>
       </c>
       <c r="H16" t="n">
-        <v>174.4275194354244</v>
+        <v>172.2924662873783</v>
       </c>
       <c r="I16" t="n">
         <v>90.51137544774225</v>
       </c>
       <c r="J16" t="n">
-        <v>166.5320276801972</v>
+        <v>166.5320276801973</v>
       </c>
       <c r="K16" t="n">
-        <v>421.2941486333089</v>
+        <v>421.2941486333098</v>
       </c>
       <c r="L16" t="n">
-        <v>802.8283865279134</v>
+        <v>802.8283865279143</v>
       </c>
       <c r="M16" t="n">
-        <v>1215.491868434742</v>
+        <v>1215.491868434743</v>
       </c>
       <c r="N16" t="n">
-        <v>1623.777751511913</v>
+        <v>1623.777751511914</v>
       </c>
       <c r="O16" t="n">
-        <v>1984.879552004302</v>
+        <v>1984.879552004303</v>
       </c>
       <c r="P16" t="n">
-        <v>2270.343842360367</v>
+        <v>2270.343842360368</v>
       </c>
       <c r="Q16" t="n">
-        <v>2384.549440074463</v>
+        <v>2384.549440074465</v>
       </c>
       <c r="R16" t="n">
-        <v>2314.76842393761</v>
+        <v>2384.549440074465</v>
       </c>
       <c r="S16" t="n">
-        <v>2130.853421001693</v>
+        <v>2200.634437138548</v>
       </c>
       <c r="T16" t="n">
-        <v>1910.992029453072</v>
+        <v>1980.773045589926</v>
       </c>
       <c r="U16" t="n">
-        <v>1621.913484585717</v>
+        <v>1980.773045589926</v>
       </c>
       <c r="V16" t="n">
-        <v>1367.228996379831</v>
+        <v>1726.088557384039</v>
       </c>
       <c r="W16" t="n">
-        <v>1077.81182634287</v>
+        <v>1726.088557384039</v>
       </c>
       <c r="X16" t="n">
-        <v>1077.81182634287</v>
+        <v>1498.099006486022</v>
       </c>
       <c r="Y16" t="n">
-        <v>857.0192471993397</v>
+        <v>1277.306427342491</v>
       </c>
     </row>
     <row r="17">
@@ -5507,52 +5507,52 @@
         <v>365.9731799930158</v>
       </c>
       <c r="H17" t="n">
-        <v>90.51137544774225</v>
+        <v>90.51137544774227</v>
       </c>
       <c r="I17" t="n">
-        <v>90.51137544774225</v>
+        <v>90.51137544774227</v>
       </c>
       <c r="J17" t="n">
-        <v>362.0815903273584</v>
+        <v>362.0815903273588</v>
       </c>
       <c r="K17" t="n">
-        <v>819.8334633619825</v>
+        <v>819.8334633619838</v>
       </c>
       <c r="L17" t="n">
-        <v>1424.616900908818</v>
+        <v>1424.616900908819</v>
       </c>
       <c r="M17" t="n">
-        <v>2129.224441916729</v>
+        <v>2129.22444191673</v>
       </c>
       <c r="N17" t="n">
         <v>2849.847077961485</v>
       </c>
       <c r="O17" t="n">
-        <v>3516.975337478951</v>
+        <v>3516.975337478952</v>
       </c>
       <c r="P17" t="n">
-        <v>4051.852871560376</v>
+        <v>4051.852871560377</v>
       </c>
       <c r="Q17" t="n">
-        <v>4405.350877537383</v>
+        <v>4405.350877537384</v>
       </c>
       <c r="R17" t="n">
-        <v>4525.568772387112</v>
+        <v>4525.568772387113</v>
       </c>
       <c r="S17" t="n">
         <v>4449.871691252</v>
       </c>
       <c r="T17" t="n">
-        <v>4260.186789209371</v>
+        <v>4260.186789209372</v>
       </c>
       <c r="U17" t="n">
-        <v>4018.677162524931</v>
+        <v>4018.677162524933</v>
       </c>
       <c r="V17" t="n">
-        <v>3699.555600000859</v>
+        <v>3699.55560000086</v>
       </c>
       <c r="W17" t="n">
-        <v>3358.728269550243</v>
+        <v>3358.728269550244</v>
       </c>
       <c r="X17" t="n">
         <v>2997.203836108662</v>
@@ -5586,34 +5586,34 @@
         <v>176.5715461918961</v>
       </c>
       <c r="H18" t="n">
-        <v>91.2064138180846</v>
+        <v>91.20641381808461</v>
       </c>
       <c r="I18" t="n">
-        <v>90.51137544774225</v>
+        <v>90.51137544774227</v>
       </c>
       <c r="J18" t="n">
         <v>233.4388880308267</v>
       </c>
       <c r="K18" t="n">
-        <v>486.628770585442</v>
+        <v>555.879596919505</v>
       </c>
       <c r="L18" t="n">
-        <v>966.512636496389</v>
+        <v>1035.763462830452</v>
       </c>
       <c r="M18" t="n">
-        <v>966.512636496389</v>
+        <v>1615.122167861125</v>
       </c>
       <c r="N18" t="n">
-        <v>1575.613887429341</v>
+        <v>1615.122167861125</v>
       </c>
       <c r="O18" t="n">
-        <v>2110.60273924594</v>
+        <v>2150.111019677725</v>
       </c>
       <c r="P18" t="n">
-        <v>2520.645392035809</v>
+        <v>2552.869467234253</v>
       </c>
       <c r="Q18" t="n">
-        <v>2520.645392035809</v>
+        <v>2552.869467234253</v>
       </c>
       <c r="R18" t="n">
         <v>2552.869467234253</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>942.2289227556271</v>
+        <v>925.6199145391415</v>
       </c>
       <c r="C19" t="n">
-        <v>785.2340646472182</v>
+        <v>785.2340646472185</v>
       </c>
       <c r="D19" t="n">
-        <v>647.0587500543805</v>
+        <v>647.0587500543808</v>
       </c>
       <c r="E19" t="n">
-        <v>511.0869812914854</v>
+        <v>511.0869812914856</v>
       </c>
       <c r="F19" t="n">
-        <v>376.138358613073</v>
+        <v>376.1383586130733</v>
       </c>
       <c r="G19" t="n">
         <v>220.8227502690004</v>
       </c>
       <c r="H19" t="n">
-        <v>90.51137544774225</v>
+        <v>90.51137544774227</v>
       </c>
       <c r="I19" t="n">
-        <v>90.51137544774225</v>
+        <v>90.51137544774227</v>
       </c>
       <c r="J19" t="n">
         <v>178.2357201357873</v>
       </c>
       <c r="K19" t="n">
-        <v>444.701533544489</v>
+        <v>444.7015335444892</v>
       </c>
       <c r="L19" t="n">
-        <v>837.9394638946836</v>
+        <v>837.9394638946837</v>
       </c>
       <c r="M19" t="n">
         <v>1262.306638257102</v>
@@ -5686,10 +5686,10 @@
         <v>1682.296213789863</v>
       </c>
       <c r="O19" t="n">
-        <v>2055.101706737842</v>
+        <v>2055.101706737843</v>
       </c>
       <c r="P19" t="n">
-        <v>2352.269689549497</v>
+        <v>2352.269689549498</v>
       </c>
       <c r="Q19" t="n">
         <v>2478.178979719184</v>
@@ -5698,25 +5698,25 @@
         <v>2420.339288401829</v>
       </c>
       <c r="S19" t="n">
-        <v>2420.339288401829</v>
+        <v>2248.36561028541</v>
       </c>
       <c r="T19" t="n">
-        <v>2212.419221672705</v>
+        <v>2040.445543556286</v>
       </c>
       <c r="U19" t="n">
-        <v>1935.282001624849</v>
+        <v>2040.445543556286</v>
       </c>
       <c r="V19" t="n">
-        <v>1692.53883823846</v>
+        <v>1797.702380169897</v>
       </c>
       <c r="W19" t="n">
-        <v>1415.062993020998</v>
+        <v>1520.226534952435</v>
       </c>
       <c r="X19" t="n">
-        <v>1320.787317090401</v>
+        <v>1304.178308873915</v>
       </c>
       <c r="Y19" t="n">
-        <v>1111.936062766369</v>
+        <v>1095.327054549883</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2244.347313707724</v>
       </c>
       <c r="C20" t="n">
-        <v>1887.32612158681</v>
+        <v>1887.326121586811</v>
       </c>
       <c r="D20" t="n">
         <v>1541.001747799558</v>
@@ -5738,22 +5738,22 @@
         <v>1167.154820020812</v>
       </c>
       <c r="F20" t="n">
-        <v>768.1102400507025</v>
+        <v>768.1102400507026</v>
       </c>
       <c r="G20" t="n">
         <v>365.9731799930158</v>
       </c>
       <c r="H20" t="n">
-        <v>90.51137544774225</v>
+        <v>90.51137544774227</v>
       </c>
       <c r="I20" t="n">
-        <v>90.51137544774225</v>
+        <v>90.51137544774227</v>
       </c>
       <c r="J20" t="n">
-        <v>362.0815903273588</v>
+        <v>362.0815903273585</v>
       </c>
       <c r="K20" t="n">
-        <v>819.8334633619829</v>
+        <v>819.8334633619827</v>
       </c>
       <c r="L20" t="n">
         <v>1424.616900908818</v>
@@ -5762,19 +5762,19 @@
         <v>2129.224441916729</v>
       </c>
       <c r="N20" t="n">
-        <v>2849.847077961485</v>
+        <v>2849.847077961486</v>
       </c>
       <c r="O20" t="n">
-        <v>3516.97533747895</v>
+        <v>3516.975337478952</v>
       </c>
       <c r="P20" t="n">
-        <v>4051.852871560376</v>
+        <v>4051.852871560377</v>
       </c>
       <c r="Q20" t="n">
-        <v>4405.350877537383</v>
+        <v>4405.350877537385</v>
       </c>
       <c r="R20" t="n">
-        <v>4525.568772387112</v>
+        <v>4525.568772387113</v>
       </c>
       <c r="S20" t="n">
         <v>4449.871691252</v>
@@ -5786,10 +5786,10 @@
         <v>4018.677162524932</v>
       </c>
       <c r="V20" t="n">
-        <v>3699.555600000859</v>
+        <v>3699.55560000086</v>
       </c>
       <c r="W20" t="n">
-        <v>3358.728269550243</v>
+        <v>3358.728269550244</v>
       </c>
       <c r="X20" t="n">
         <v>2997.203836108662</v>
@@ -5823,34 +5823,34 @@
         <v>176.5715461918961</v>
       </c>
       <c r="H21" t="n">
-        <v>91.20641381808461</v>
+        <v>91.20641381808458</v>
       </c>
       <c r="I21" t="n">
-        <v>90.51137544774225</v>
+        <v>90.51137544774227</v>
       </c>
       <c r="J21" t="n">
-        <v>233.4388880308267</v>
+        <v>90.51137544774227</v>
       </c>
       <c r="K21" t="n">
-        <v>292.1878585132272</v>
+        <v>90.51137544774227</v>
       </c>
       <c r="L21" t="n">
-        <v>772.071724424174</v>
+        <v>570.3952413586893</v>
       </c>
       <c r="M21" t="n">
-        <v>1351.430429454847</v>
+        <v>1149.753946389363</v>
       </c>
       <c r="N21" t="n">
-        <v>1351.430429454847</v>
+        <v>1758.855197322314</v>
       </c>
       <c r="O21" t="n">
-        <v>1886.419281271447</v>
+        <v>2293.844049138915</v>
       </c>
       <c r="P21" t="n">
-        <v>2296.461934061316</v>
+        <v>2552.869467234253</v>
       </c>
       <c r="Q21" t="n">
-        <v>2520.645392035809</v>
+        <v>2552.869467234253</v>
       </c>
       <c r="R21" t="n">
         <v>2552.869467234253</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>914.2424525377653</v>
+        <v>648.4826944912859</v>
       </c>
       <c r="C22" t="n">
-        <v>757.2475944293565</v>
+        <v>491.487836382877</v>
       </c>
       <c r="D22" t="n">
-        <v>619.0722798365189</v>
+        <v>376.1383586130734</v>
       </c>
       <c r="E22" t="n">
-        <v>511.0869812914854</v>
+        <v>376.1383586130734</v>
       </c>
       <c r="F22" t="n">
-        <v>376.1383586130731</v>
+        <v>376.1383586130734</v>
       </c>
       <c r="G22" t="n">
-        <v>220.8227502690003</v>
+        <v>220.8227502690004</v>
       </c>
       <c r="H22" t="n">
-        <v>90.51137544774225</v>
+        <v>90.51137544774227</v>
       </c>
       <c r="I22" t="n">
-        <v>90.51137544774225</v>
+        <v>90.51137544774227</v>
       </c>
       <c r="J22" t="n">
-        <v>178.2357201357873</v>
+        <v>178.2357201357877</v>
       </c>
       <c r="K22" t="n">
-        <v>444.7015335444891</v>
+        <v>444.7015335444895</v>
       </c>
       <c r="L22" t="n">
-        <v>837.9394638946836</v>
+        <v>837.9394638946842</v>
       </c>
       <c r="M22" t="n">
-        <v>1262.306638257102</v>
+        <v>1262.306638257103</v>
       </c>
       <c r="N22" t="n">
-        <v>1682.296213789863</v>
+        <v>1682.296213789864</v>
       </c>
       <c r="O22" t="n">
-        <v>2055.101706737842</v>
+        <v>2055.101706737843</v>
       </c>
       <c r="P22" t="n">
-        <v>2352.269689549497</v>
+        <v>2352.269689549498</v>
       </c>
       <c r="Q22" t="n">
         <v>2478.178979719184</v>
       </c>
       <c r="R22" t="n">
-        <v>2478.178979719184</v>
+        <v>2420.339288401829</v>
       </c>
       <c r="S22" t="n">
-        <v>2306.205301602765</v>
+        <v>2248.36561028541</v>
       </c>
       <c r="T22" t="n">
-        <v>2306.205301602765</v>
+        <v>2040.445543556286</v>
       </c>
       <c r="U22" t="n">
-        <v>2029.068081554909</v>
+        <v>1763.30832350843</v>
       </c>
       <c r="V22" t="n">
-        <v>1786.324918168521</v>
+        <v>1520.565160122041</v>
       </c>
       <c r="W22" t="n">
-        <v>1508.849072951058</v>
+        <v>1243.089314904579</v>
       </c>
       <c r="X22" t="n">
-        <v>1292.800846872539</v>
+        <v>1027.04108882606</v>
       </c>
       <c r="Y22" t="n">
-        <v>1083.949592548507</v>
+        <v>818.1898345020276</v>
       </c>
     </row>
     <row r="23">
@@ -5969,28 +5969,28 @@
         <v>1887.326121586811</v>
       </c>
       <c r="D23" t="n">
-        <v>1541.001747799559</v>
+        <v>1541.001747799558</v>
       </c>
       <c r="E23" t="n">
-        <v>1167.154820020813</v>
+        <v>1167.154820020812</v>
       </c>
       <c r="F23" t="n">
-        <v>768.1102400507034</v>
+        <v>768.1102400507025</v>
       </c>
       <c r="G23" t="n">
         <v>365.9731799930158</v>
       </c>
       <c r="H23" t="n">
-        <v>90.51137544774228</v>
+        <v>90.51137544774227</v>
       </c>
       <c r="I23" t="n">
-        <v>90.51137544774228</v>
+        <v>90.51137544774227</v>
       </c>
       <c r="J23" t="n">
-        <v>362.0815903273583</v>
+        <v>362.0815903273585</v>
       </c>
       <c r="K23" t="n">
-        <v>819.8334633619825</v>
+        <v>819.8334633619827</v>
       </c>
       <c r="L23" t="n">
         <v>1424.616900908818</v>
@@ -5999,7 +5999,7 @@
         <v>2129.224441916729</v>
       </c>
       <c r="N23" t="n">
-        <v>2849.847077961485</v>
+        <v>2849.847077961486</v>
       </c>
       <c r="O23" t="n">
         <v>3516.975337478952</v>
@@ -6011,13 +6011,13 @@
         <v>4405.350877537385</v>
       </c>
       <c r="R23" t="n">
-        <v>4525.568772387114</v>
+        <v>4525.568772387113</v>
       </c>
       <c r="S23" t="n">
-        <v>4449.871691252002</v>
+        <v>4449.871691252001</v>
       </c>
       <c r="T23" t="n">
-        <v>4260.186789209373</v>
+        <v>4260.186789209372</v>
       </c>
       <c r="U23" t="n">
         <v>4018.677162524933</v>
@@ -6042,58 +6042,58 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5622264667223</v>
+        <v>941.5622264667221</v>
       </c>
       <c r="C24" t="n">
-        <v>767.1091971855953</v>
+        <v>767.1091971855951</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1747875243441</v>
+        <v>618.1747875243439</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9373325188885</v>
+        <v>458.9373325188884</v>
       </c>
       <c r="F24" t="n">
-        <v>312.4027745457735</v>
+        <v>312.4027745457734</v>
       </c>
       <c r="G24" t="n">
         <v>176.5715461918961</v>
       </c>
       <c r="H24" t="n">
-        <v>91.20641381808463</v>
+        <v>91.20641381808458</v>
       </c>
       <c r="I24" t="n">
-        <v>90.51137544774228</v>
+        <v>90.51137544774227</v>
       </c>
       <c r="J24" t="n">
-        <v>233.4388880308268</v>
+        <v>233.4388880308267</v>
       </c>
       <c r="K24" t="n">
-        <v>233.4388880308268</v>
+        <v>555.8795969195052</v>
       </c>
       <c r="L24" t="n">
-        <v>713.3227539417737</v>
+        <v>1035.763462830452</v>
       </c>
       <c r="M24" t="n">
-        <v>742.3291785218958</v>
+        <v>1615.122167861125</v>
       </c>
       <c r="N24" t="n">
-        <v>1351.430429454847</v>
+        <v>2224.223418794077</v>
       </c>
       <c r="O24" t="n">
-        <v>1886.419281271447</v>
+        <v>2552.869467234253</v>
       </c>
       <c r="P24" t="n">
-        <v>2296.461934061316</v>
+        <v>2552.869467234253</v>
       </c>
       <c r="Q24" t="n">
-        <v>2520.64539203581</v>
+        <v>2552.869467234253</v>
       </c>
       <c r="R24" t="n">
-        <v>2552.869467234254</v>
+        <v>2552.869467234253</v>
       </c>
       <c r="S24" t="n">
-        <v>2433.310866386471</v>
+        <v>2433.31086638647</v>
       </c>
       <c r="T24" t="n">
         <v>2242.811682716128</v>
@@ -6102,7 +6102,7 @@
         <v>2014.778827417221</v>
       </c>
       <c r="V24" t="n">
-        <v>1779.626719185479</v>
+        <v>1779.626719185478</v>
       </c>
       <c r="W24" t="n">
         <v>1525.389362457277</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>883.8923671025532</v>
+        <v>648.4826944912863</v>
       </c>
       <c r="C25" t="n">
-        <v>726.8975089941442</v>
+        <v>491.4878363828775</v>
       </c>
       <c r="D25" t="n">
-        <v>588.7221944013065</v>
+        <v>491.4878363828775</v>
       </c>
       <c r="E25" t="n">
-        <v>452.7504256384115</v>
+        <v>491.4878363828775</v>
       </c>
       <c r="F25" t="n">
-        <v>317.8018029599991</v>
+        <v>448.1131777812575</v>
       </c>
       <c r="G25" t="n">
-        <v>162.4861946159264</v>
+        <v>292.7975694371846</v>
       </c>
       <c r="H25" t="n">
         <v>162.4861946159264</v>
       </c>
       <c r="I25" t="n">
-        <v>90.51137544774228</v>
+        <v>90.51137544774227</v>
       </c>
       <c r="J25" t="n">
-        <v>178.2357201357873</v>
+        <v>178.235720135787</v>
       </c>
       <c r="K25" t="n">
-        <v>444.7015335444891</v>
+        <v>444.7015335444887</v>
       </c>
       <c r="L25" t="n">
-        <v>837.9394638946837</v>
+        <v>837.9394638946833</v>
       </c>
       <c r="M25" t="n">
         <v>1262.306638257102</v>
@@ -6166,13 +6166,13 @@
         <v>2352.269689549498</v>
       </c>
       <c r="Q25" t="n">
-        <v>2478.178979719184</v>
+        <v>2478.178979719185</v>
       </c>
       <c r="R25" t="n">
         <v>2420.339288401829</v>
       </c>
       <c r="S25" t="n">
-        <v>2248.36561028541</v>
+        <v>2248.365610285411</v>
       </c>
       <c r="T25" t="n">
         <v>2040.445543556286</v>
@@ -6181,16 +6181,16 @@
         <v>1763.30832350843</v>
       </c>
       <c r="V25" t="n">
-        <v>1755.974832733309</v>
+        <v>1520.565160122042</v>
       </c>
       <c r="W25" t="n">
-        <v>1478.498987515846</v>
+        <v>1243.089314904579</v>
       </c>
       <c r="X25" t="n">
-        <v>1262.450761437327</v>
+        <v>1027.04108882606</v>
       </c>
       <c r="Y25" t="n">
-        <v>1053.599507113295</v>
+        <v>818.189834502028</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2244.347313707726</v>
+        <v>2244.347313707724</v>
       </c>
       <c r="C26" t="n">
-        <v>1887.326121586812</v>
+        <v>1887.32612158681</v>
       </c>
       <c r="D26" t="n">
-        <v>1541.00174779956</v>
+        <v>1541.001747799558</v>
       </c>
       <c r="E26" t="n">
-        <v>1167.154820020814</v>
+        <v>1167.154820020812</v>
       </c>
       <c r="F26" t="n">
-        <v>768.1102400507041</v>
+        <v>768.1102400507031</v>
       </c>
       <c r="G26" t="n">
-        <v>365.9731799930158</v>
+        <v>365.9731799930159</v>
       </c>
       <c r="H26" t="n">
         <v>90.51137544774228</v>
@@ -6224,19 +6224,19 @@
         <v>90.51137544774228</v>
       </c>
       <c r="J26" t="n">
-        <v>362.0815903273583</v>
+        <v>362.0815903273584</v>
       </c>
       <c r="K26" t="n">
-        <v>819.8334633619825</v>
+        <v>819.8334633619827</v>
       </c>
       <c r="L26" t="n">
-        <v>1424.61690090882</v>
+        <v>1424.616900908818</v>
       </c>
       <c r="M26" t="n">
-        <v>2129.22444191673</v>
+        <v>2129.224441916729</v>
       </c>
       <c r="N26" t="n">
-        <v>2849.847077961486</v>
+        <v>2849.847077961485</v>
       </c>
       <c r="O26" t="n">
         <v>3516.975337478952</v>
@@ -6251,7 +6251,7 @@
         <v>4525.568772387114</v>
       </c>
       <c r="S26" t="n">
-        <v>4449.871691252001</v>
+        <v>4449.871691252002</v>
       </c>
       <c r="T26" t="n">
         <v>4260.186789209373</v>
@@ -6260,16 +6260,16 @@
         <v>4018.677162524933</v>
       </c>
       <c r="V26" t="n">
-        <v>3699.555600000861</v>
+        <v>3699.55560000086</v>
       </c>
       <c r="W26" t="n">
-        <v>3358.728269550245</v>
+        <v>3358.728269550244</v>
       </c>
       <c r="X26" t="n">
-        <v>2997.203836108663</v>
+        <v>2997.203836108662</v>
       </c>
       <c r="Y26" t="n">
-        <v>2619.005828952349</v>
+        <v>2619.005828952348</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5622264667223</v>
+        <v>941.5622264667221</v>
       </c>
       <c r="C27" t="n">
-        <v>767.1091971855953</v>
+        <v>767.1091971855951</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1747875243441</v>
+        <v>618.1747875243439</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9373325188885</v>
+        <v>458.9373325188884</v>
       </c>
       <c r="F27" t="n">
-        <v>312.4027745457735</v>
+        <v>312.4027745457734</v>
       </c>
       <c r="G27" t="n">
         <v>176.5715461918961</v>
       </c>
       <c r="H27" t="n">
-        <v>91.20641381808463</v>
+        <v>91.2064138180846</v>
       </c>
       <c r="I27" t="n">
         <v>90.51137544774228</v>
@@ -6306,31 +6306,31 @@
         <v>233.4388880308268</v>
       </c>
       <c r="K27" t="n">
-        <v>555.879596919505</v>
+        <v>555.8795969195052</v>
       </c>
       <c r="L27" t="n">
-        <v>555.879596919505</v>
+        <v>829.4206594540277</v>
       </c>
       <c r="M27" t="n">
-        <v>1135.238301950178</v>
+        <v>1408.779364484701</v>
       </c>
       <c r="N27" t="n">
-        <v>1744.33955288313</v>
+        <v>2017.880615417653</v>
       </c>
       <c r="O27" t="n">
-        <v>2279.32840469973</v>
+        <v>2552.869467234253</v>
       </c>
       <c r="P27" t="n">
-        <v>2296.461934061316</v>
+        <v>2552.869467234253</v>
       </c>
       <c r="Q27" t="n">
-        <v>2520.64539203581</v>
+        <v>2552.869467234253</v>
       </c>
       <c r="R27" t="n">
-        <v>2552.869467234254</v>
+        <v>2552.869467234253</v>
       </c>
       <c r="S27" t="n">
-        <v>2433.310866386471</v>
+        <v>2433.31086638647</v>
       </c>
       <c r="T27" t="n">
         <v>2242.811682716128</v>
@@ -6339,7 +6339,7 @@
         <v>2014.778827417221</v>
       </c>
       <c r="V27" t="n">
-        <v>1779.626719185479</v>
+        <v>1779.626719185478</v>
       </c>
       <c r="W27" t="n">
         <v>1525.389362457277</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>883.8923671025531</v>
+        <v>811.9175479343696</v>
       </c>
       <c r="C28" t="n">
-        <v>726.8975089941443</v>
+        <v>654.9226898259607</v>
       </c>
       <c r="D28" t="n">
-        <v>588.7221944013065</v>
+        <v>516.747375233123</v>
       </c>
       <c r="E28" t="n">
-        <v>452.7504256384117</v>
+        <v>380.7756064702279</v>
       </c>
       <c r="F28" t="n">
-        <v>317.8018029599993</v>
+        <v>245.8269837918152</v>
       </c>
       <c r="G28" t="n">
-        <v>162.4861946159264</v>
+        <v>90.51137544774228</v>
       </c>
       <c r="H28" t="n">
-        <v>162.4861946159264</v>
+        <v>90.51137544774228</v>
       </c>
       <c r="I28" t="n">
         <v>90.51137544774228</v>
@@ -6385,10 +6385,10 @@
         <v>178.2357201357872</v>
       </c>
       <c r="K28" t="n">
-        <v>444.7015335444891</v>
+        <v>444.7015335444892</v>
       </c>
       <c r="L28" t="n">
-        <v>837.9394638946836</v>
+        <v>837.9394638946837</v>
       </c>
       <c r="M28" t="n">
         <v>1262.306638257102</v>
@@ -6406,28 +6406,28 @@
         <v>2478.178979719184</v>
       </c>
       <c r="R28" t="n">
-        <v>2420.339288401829</v>
+        <v>2478.178979719184</v>
       </c>
       <c r="S28" t="n">
-        <v>2420.339288401829</v>
+        <v>2306.205301602765</v>
       </c>
       <c r="T28" t="n">
-        <v>2212.419221672705</v>
+        <v>2098.285234873641</v>
       </c>
       <c r="U28" t="n">
-        <v>1935.282001624849</v>
+        <v>1926.743176951514</v>
       </c>
       <c r="V28" t="n">
-        <v>1755.974832733309</v>
+        <v>1684.000013565126</v>
       </c>
       <c r="W28" t="n">
-        <v>1478.498987515846</v>
+        <v>1406.524168347663</v>
       </c>
       <c r="X28" t="n">
-        <v>1262.450761437327</v>
+        <v>1190.475942269144</v>
       </c>
       <c r="Y28" t="n">
-        <v>1053.599507113295</v>
+        <v>981.6246879451114</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2244.347313707725</v>
+        <v>2244.347313707724</v>
       </c>
       <c r="C29" t="n">
         <v>1887.326121586811</v>
@@ -6446,22 +6446,22 @@
         <v>1541.001747799558</v>
       </c>
       <c r="E29" t="n">
-        <v>1167.154820020813</v>
+        <v>1167.154820020812</v>
       </c>
       <c r="F29" t="n">
-        <v>768.1102400507029</v>
+        <v>768.1102400507025</v>
       </c>
       <c r="G29" t="n">
         <v>365.9731799930158</v>
       </c>
       <c r="H29" t="n">
-        <v>90.51137544774225</v>
+        <v>90.51137544774227</v>
       </c>
       <c r="I29" t="n">
-        <v>90.51137544774225</v>
+        <v>90.51137544774227</v>
       </c>
       <c r="J29" t="n">
-        <v>362.0815903273583</v>
+        <v>362.0815903273582</v>
       </c>
       <c r="K29" t="n">
         <v>819.8334633619825</v>
@@ -6470,7 +6470,7 @@
         <v>1424.616900908818</v>
       </c>
       <c r="M29" t="n">
-        <v>2129.224441916728</v>
+        <v>2129.224441916729</v>
       </c>
       <c r="N29" t="n">
         <v>2849.847077961485</v>
@@ -6479,13 +6479,13 @@
         <v>3516.975337478951</v>
       </c>
       <c r="P29" t="n">
-        <v>4051.852871560376</v>
+        <v>4051.852871560377</v>
       </c>
       <c r="Q29" t="n">
-        <v>4405.350877537383</v>
+        <v>4405.350877537384</v>
       </c>
       <c r="R29" t="n">
-        <v>4525.568772387112</v>
+        <v>4525.568772387113</v>
       </c>
       <c r="S29" t="n">
         <v>4449.871691252</v>
@@ -6494,7 +6494,7 @@
         <v>4260.186789209372</v>
       </c>
       <c r="U29" t="n">
-        <v>4018.677162524932</v>
+        <v>4018.677162524933</v>
       </c>
       <c r="V29" t="n">
         <v>3699.55560000086</v>
@@ -6506,7 +6506,7 @@
         <v>2997.203836108662</v>
       </c>
       <c r="Y29" t="n">
-        <v>2619.005828952349</v>
+        <v>2619.005828952348</v>
       </c>
     </row>
     <row r="30">
@@ -6534,31 +6534,31 @@
         <v>176.5715461918961</v>
       </c>
       <c r="H30" t="n">
-        <v>91.2064138180846</v>
+        <v>91.20641381808458</v>
       </c>
       <c r="I30" t="n">
-        <v>90.51137544774225</v>
+        <v>90.51137544774227</v>
       </c>
       <c r="J30" t="n">
         <v>233.4388880308267</v>
       </c>
       <c r="K30" t="n">
-        <v>555.879596919505</v>
+        <v>555.8795969195052</v>
       </c>
       <c r="L30" t="n">
-        <v>1035.763462830452</v>
+        <v>998.7367116948323</v>
       </c>
       <c r="M30" t="n">
-        <v>1615.122167861125</v>
+        <v>998.7367116948323</v>
       </c>
       <c r="N30" t="n">
-        <v>1615.122167861125</v>
+        <v>1607.837962627784</v>
       </c>
       <c r="O30" t="n">
-        <v>1918.64335646989</v>
+        <v>2142.826814444384</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.686009259759</v>
+        <v>2552.869467234253</v>
       </c>
       <c r="Q30" t="n">
         <v>2552.869467234253</v>
@@ -6595,43 +6595,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>820.4563726077056</v>
+        <v>942.2289227556281</v>
       </c>
       <c r="C31" t="n">
-        <v>663.4615144992966</v>
+        <v>785.2340646472192</v>
       </c>
       <c r="D31" t="n">
-        <v>525.286199906459</v>
+        <v>647.0587500543814</v>
       </c>
       <c r="E31" t="n">
-        <v>389.314431143564</v>
+        <v>511.0869812914863</v>
       </c>
       <c r="F31" t="n">
-        <v>254.3658084651518</v>
+        <v>376.1383586130739</v>
       </c>
       <c r="G31" t="n">
-        <v>99.05020012107904</v>
+        <v>220.8227502690004</v>
       </c>
       <c r="H31" t="n">
-        <v>99.05020012107904</v>
+        <v>90.51137544774227</v>
       </c>
       <c r="I31" t="n">
-        <v>90.51137544774225</v>
+        <v>90.51137544774227</v>
       </c>
       <c r="J31" t="n">
-        <v>178.2357201357873</v>
+        <v>178.2357201357871</v>
       </c>
       <c r="K31" t="n">
-        <v>444.7015335444891</v>
+        <v>444.7015335444889</v>
       </c>
       <c r="L31" t="n">
-        <v>837.9394638946837</v>
+        <v>837.9394638946836</v>
       </c>
       <c r="M31" t="n">
-        <v>1262.306638257103</v>
+        <v>1262.306638257102</v>
       </c>
       <c r="N31" t="n">
-        <v>1682.296213789864</v>
+        <v>1682.296213789863</v>
       </c>
       <c r="O31" t="n">
         <v>2055.101706737843</v>
@@ -6640,31 +6640,31 @@
         <v>2352.269689549498</v>
       </c>
       <c r="Q31" t="n">
-        <v>2478.178979719185</v>
+        <v>2478.178979719184</v>
       </c>
       <c r="R31" t="n">
-        <v>2420.33928840183</v>
+        <v>2478.178979719184</v>
       </c>
       <c r="S31" t="n">
-        <v>2420.33928840183</v>
+        <v>2306.205301602765</v>
       </c>
       <c r="T31" t="n">
-        <v>2212.419221672706</v>
+        <v>2306.205301602765</v>
       </c>
       <c r="U31" t="n">
-        <v>1935.28200162485</v>
+        <v>2057.054551772773</v>
       </c>
       <c r="V31" t="n">
-        <v>1692.538838238461</v>
+        <v>1814.311388386384</v>
       </c>
       <c r="W31" t="n">
-        <v>1415.062993020998</v>
+        <v>1536.835543168921</v>
       </c>
       <c r="X31" t="n">
-        <v>1199.014766942479</v>
+        <v>1320.787317090402</v>
       </c>
       <c r="Y31" t="n">
-        <v>990.1635126184472</v>
+        <v>1111.93606276637</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2244.347313707725</v>
+        <v>2244.347313707724</v>
       </c>
       <c r="C32" t="n">
         <v>1887.326121586811</v>
       </c>
       <c r="D32" t="n">
-        <v>1541.001747799558</v>
+        <v>1541.001747799559</v>
       </c>
       <c r="E32" t="n">
         <v>1167.154820020812</v>
       </c>
       <c r="F32" t="n">
-        <v>768.1102400507025</v>
+        <v>768.1102400507027</v>
       </c>
       <c r="G32" t="n">
         <v>365.9731799930159</v>
@@ -6728,7 +6728,7 @@
         <v>4449.871691252001</v>
       </c>
       <c r="T32" t="n">
-        <v>4260.186789209372</v>
+        <v>4260.186789209373</v>
       </c>
       <c r="U32" t="n">
         <v>4018.677162524933</v>
@@ -6743,7 +6743,7 @@
         <v>2997.203836108662</v>
       </c>
       <c r="Y32" t="n">
-        <v>2619.005828952349</v>
+        <v>2619.005828952348</v>
       </c>
     </row>
     <row r="33">
@@ -6777,28 +6777,28 @@
         <v>90.51137544774228</v>
       </c>
       <c r="J33" t="n">
-        <v>233.4388880308268</v>
+        <v>90.51137544774228</v>
       </c>
       <c r="K33" t="n">
-        <v>555.8795969195052</v>
+        <v>90.51137544774228</v>
       </c>
       <c r="L33" t="n">
-        <v>1035.763462830452</v>
+        <v>570.3952413586893</v>
       </c>
       <c r="M33" t="n">
-        <v>1351.430429454847</v>
+        <v>1149.753946389363</v>
       </c>
       <c r="N33" t="n">
-        <v>1351.430429454847</v>
+        <v>1758.855197322314</v>
       </c>
       <c r="O33" t="n">
-        <v>1886.419281271447</v>
+        <v>2293.844049138915</v>
       </c>
       <c r="P33" t="n">
-        <v>2296.461934061316</v>
+        <v>2552.869467234253</v>
       </c>
       <c r="Q33" t="n">
-        <v>2520.645392035809</v>
+        <v>2552.869467234253</v>
       </c>
       <c r="R33" t="n">
         <v>2552.869467234253</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>706.3223858086401</v>
+        <v>648.4826944912843</v>
       </c>
       <c r="C34" t="n">
-        <v>549.3275277002311</v>
+        <v>491.4878363828753</v>
       </c>
       <c r="D34" t="n">
-        <v>411.1522131073934</v>
+        <v>491.4878363828753</v>
       </c>
       <c r="E34" t="n">
-        <v>275.1804443444983</v>
+        <v>491.4878363828753</v>
       </c>
       <c r="F34" t="n">
-        <v>162.4861946159265</v>
+        <v>376.1383586130734</v>
       </c>
       <c r="G34" t="n">
-        <v>162.4861946159265</v>
+        <v>220.8227502690005</v>
       </c>
       <c r="H34" t="n">
-        <v>162.4861946159265</v>
+        <v>90.51137544774228</v>
       </c>
       <c r="I34" t="n">
         <v>90.51137544774228</v>
@@ -6859,10 +6859,10 @@
         <v>178.2357201357872</v>
       </c>
       <c r="K34" t="n">
-        <v>444.7015335444889</v>
+        <v>444.7015335444887</v>
       </c>
       <c r="L34" t="n">
-        <v>837.9394638946835</v>
+        <v>837.9394638946833</v>
       </c>
       <c r="M34" t="n">
         <v>1262.306638257102</v>
@@ -6871,37 +6871,37 @@
         <v>1682.296213789863</v>
       </c>
       <c r="O34" t="n">
-        <v>2055.101706737843</v>
+        <v>2055.101706737842</v>
       </c>
       <c r="P34" t="n">
-        <v>2352.269689549498</v>
+        <v>2352.269689549497</v>
       </c>
       <c r="Q34" t="n">
         <v>2478.178979719184</v>
       </c>
       <c r="R34" t="n">
-        <v>2478.178979719184</v>
+        <v>2420.339288401829</v>
       </c>
       <c r="S34" t="n">
-        <v>2306.205301602765</v>
+        <v>2248.36561028541</v>
       </c>
       <c r="T34" t="n">
-        <v>2098.285234873641</v>
+        <v>2040.445543556286</v>
       </c>
       <c r="U34" t="n">
-        <v>1821.148014825785</v>
+        <v>1763.308323508429</v>
       </c>
       <c r="V34" t="n">
-        <v>1578.404851439396</v>
+        <v>1520.56516012204</v>
       </c>
       <c r="W34" t="n">
-        <v>1300.929006221933</v>
+        <v>1243.089314904578</v>
       </c>
       <c r="X34" t="n">
-        <v>1084.880780143414</v>
+        <v>1027.041088826058</v>
       </c>
       <c r="Y34" t="n">
-        <v>876.0295258193819</v>
+        <v>818.1898345020261</v>
       </c>
     </row>
     <row r="35">
@@ -6923,7 +6923,7 @@
         <v>1167.154820020812</v>
       </c>
       <c r="F35" t="n">
-        <v>768.1102400507025</v>
+        <v>768.110240050702</v>
       </c>
       <c r="G35" t="n">
         <v>365.9731799930158</v>
@@ -6935,10 +6935,10 @@
         <v>90.51137544774227</v>
       </c>
       <c r="J35" t="n">
-        <v>362.0815903273585</v>
+        <v>362.0815903273583</v>
       </c>
       <c r="K35" t="n">
-        <v>819.8334633619827</v>
+        <v>819.8334633619825</v>
       </c>
       <c r="L35" t="n">
         <v>1424.616900908818</v>
@@ -7014,28 +7014,28 @@
         <v>90.51137544774227</v>
       </c>
       <c r="J36" t="n">
-        <v>233.4388880308267</v>
+        <v>90.51137544774227</v>
       </c>
       <c r="K36" t="n">
-        <v>555.8795969195052</v>
+        <v>90.51137544774227</v>
       </c>
       <c r="L36" t="n">
-        <v>1035.763462830452</v>
+        <v>570.3952413586893</v>
       </c>
       <c r="M36" t="n">
-        <v>1277.318030338495</v>
+        <v>1149.753946389363</v>
       </c>
       <c r="N36" t="n">
-        <v>1886.419281271447</v>
+        <v>1758.855197322314</v>
       </c>
       <c r="O36" t="n">
-        <v>1886.419281271447</v>
+        <v>2293.844049138915</v>
       </c>
       <c r="P36" t="n">
-        <v>2296.461934061316</v>
+        <v>2552.869467234253</v>
       </c>
       <c r="Q36" t="n">
-        <v>2520.645392035809</v>
+        <v>2552.869467234253</v>
       </c>
       <c r="R36" t="n">
         <v>2552.869467234253</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>745.7170525097156</v>
+        <v>925.6199145391424</v>
       </c>
       <c r="C37" t="n">
-        <v>588.7221944013068</v>
+        <v>768.6250564307336</v>
       </c>
       <c r="D37" t="n">
-        <v>588.7221944013068</v>
+        <v>630.4497418378959</v>
       </c>
       <c r="E37" t="n">
-        <v>452.7504256384117</v>
+        <v>494.4779730750008</v>
       </c>
       <c r="F37" t="n">
-        <v>317.8018029599993</v>
+        <v>448.1131777812575</v>
       </c>
       <c r="G37" t="n">
-        <v>162.4861946159264</v>
+        <v>292.7975694371846</v>
       </c>
       <c r="H37" t="n">
         <v>162.4861946159264</v>
@@ -7093,19 +7093,19 @@
         <v>90.51137544774227</v>
       </c>
       <c r="J37" t="n">
-        <v>178.2357201357872</v>
+        <v>178.2357201357874</v>
       </c>
       <c r="K37" t="n">
-        <v>444.7015335444889</v>
+        <v>444.7015335444892</v>
       </c>
       <c r="L37" t="n">
-        <v>837.9394638946835</v>
+        <v>837.9394638946842</v>
       </c>
       <c r="M37" t="n">
-        <v>1262.306638257102</v>
+        <v>1262.306638257103</v>
       </c>
       <c r="N37" t="n">
-        <v>1682.296213789863</v>
+        <v>1682.296213789864</v>
       </c>
       <c r="O37" t="n">
         <v>2055.101706737843</v>
@@ -7114,7 +7114,7 @@
         <v>2352.269689549498</v>
       </c>
       <c r="Q37" t="n">
-        <v>2478.178979719184</v>
+        <v>2478.178979719185</v>
       </c>
       <c r="R37" t="n">
         <v>2420.339288401829</v>
@@ -7126,19 +7126,19 @@
         <v>2040.445543556287</v>
       </c>
       <c r="U37" t="n">
-        <v>1763.308323508431</v>
+        <v>2040.445543556287</v>
       </c>
       <c r="V37" t="n">
-        <v>1520.565160122042</v>
+        <v>1797.702380169898</v>
       </c>
       <c r="W37" t="n">
-        <v>1243.089314904579</v>
+        <v>1520.226534952435</v>
       </c>
       <c r="X37" t="n">
-        <v>1124.27544684449</v>
+        <v>1304.178308873916</v>
       </c>
       <c r="Y37" t="n">
-        <v>915.4241925204573</v>
+        <v>1095.327054549884</v>
       </c>
     </row>
     <row r="38">
@@ -7148,31 +7148,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2244.347313707725</v>
+        <v>2244.347313707726</v>
       </c>
       <c r="C38" t="n">
-        <v>1887.326121586811</v>
+        <v>1887.326121586812</v>
       </c>
       <c r="D38" t="n">
-        <v>1541.001747799559</v>
+        <v>1541.00174779956</v>
       </c>
       <c r="E38" t="n">
-        <v>1167.154820020812</v>
+        <v>1167.154820020814</v>
       </c>
       <c r="F38" t="n">
-        <v>768.1102400507027</v>
+        <v>768.110240050704</v>
       </c>
       <c r="G38" t="n">
-        <v>365.9731799930159</v>
+        <v>365.9731799930172</v>
       </c>
       <c r="H38" t="n">
-        <v>90.51137544774228</v>
+        <v>90.5113754477436</v>
       </c>
       <c r="I38" t="n">
         <v>90.51137544774228</v>
       </c>
       <c r="J38" t="n">
-        <v>362.0815903273588</v>
+        <v>362.0815903273583</v>
       </c>
       <c r="K38" t="n">
         <v>819.8334633619825</v>
@@ -7181,7 +7181,7 @@
         <v>1424.616900908818</v>
       </c>
       <c r="M38" t="n">
-        <v>2129.224441916728</v>
+        <v>2129.224441916729</v>
       </c>
       <c r="N38" t="n">
         <v>2849.847077961485</v>
@@ -7202,19 +7202,19 @@
         <v>4449.871691252002</v>
       </c>
       <c r="T38" t="n">
-        <v>4260.186789209373</v>
+        <v>4260.186789209374</v>
       </c>
       <c r="U38" t="n">
-        <v>4018.677162524933</v>
+        <v>4018.677162524934</v>
       </c>
       <c r="V38" t="n">
         <v>3699.555600000861</v>
       </c>
       <c r="W38" t="n">
-        <v>3358.728269550244</v>
+        <v>3358.728269550245</v>
       </c>
       <c r="X38" t="n">
-        <v>2997.203836108662</v>
+        <v>2997.203836108663</v>
       </c>
       <c r="Y38" t="n">
         <v>2619.005828952349</v>
@@ -7251,28 +7251,28 @@
         <v>90.51137544774228</v>
       </c>
       <c r="J39" t="n">
-        <v>90.51137544774228</v>
+        <v>233.4388880308268</v>
       </c>
       <c r="K39" t="n">
-        <v>412.9520843364207</v>
+        <v>474.482992569812</v>
       </c>
       <c r="L39" t="n">
-        <v>892.8359502473677</v>
+        <v>954.3668584807591</v>
       </c>
       <c r="M39" t="n">
-        <v>1472.194655278041</v>
+        <v>1533.725563511432</v>
       </c>
       <c r="N39" t="n">
-        <v>1575.61388742934</v>
+        <v>2142.826814444384</v>
       </c>
       <c r="O39" t="n">
-        <v>2110.60273924594</v>
+        <v>2142.826814444384</v>
       </c>
       <c r="P39" t="n">
-        <v>2520.645392035809</v>
+        <v>2552.869467234253</v>
       </c>
       <c r="Q39" t="n">
-        <v>2520.645392035809</v>
+        <v>2552.869467234253</v>
       </c>
       <c r="R39" t="n">
         <v>2552.869467234253</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>942.2289227556278</v>
+        <v>648.4826944912857</v>
       </c>
       <c r="C40" t="n">
-        <v>785.2340646472189</v>
+        <v>491.4878363828768</v>
       </c>
       <c r="D40" t="n">
-        <v>647.0587500543811</v>
+        <v>448.1131777812576</v>
       </c>
       <c r="E40" t="n">
-        <v>511.086981291486</v>
+        <v>448.1131777812576</v>
       </c>
       <c r="F40" t="n">
-        <v>376.1383586130735</v>
+        <v>448.1131777812576</v>
       </c>
       <c r="G40" t="n">
-        <v>220.8227502690005</v>
+        <v>292.7975694371847</v>
       </c>
       <c r="H40" t="n">
-        <v>90.51137544774228</v>
+        <v>162.4861946159265</v>
       </c>
       <c r="I40" t="n">
         <v>90.51137544774228</v>
       </c>
       <c r="J40" t="n">
-        <v>178.2357201357872</v>
+        <v>178.2357201357873</v>
       </c>
       <c r="K40" t="n">
-        <v>444.7015335444889</v>
+        <v>444.7015335444891</v>
       </c>
       <c r="L40" t="n">
         <v>837.9394638946837</v>
@@ -7360,22 +7360,22 @@
         <v>2248.36561028541</v>
       </c>
       <c r="T40" t="n">
-        <v>2248.36561028541</v>
+        <v>2040.445543556286</v>
       </c>
       <c r="U40" t="n">
-        <v>1971.228390237554</v>
+        <v>1763.30832350843</v>
       </c>
       <c r="V40" t="n">
-        <v>1728.485226851165</v>
+        <v>1520.565160122041</v>
       </c>
       <c r="W40" t="n">
-        <v>1451.009381633702</v>
+        <v>1243.089314904579</v>
       </c>
       <c r="X40" t="n">
-        <v>1234.961155555183</v>
+        <v>1027.041088826059</v>
       </c>
       <c r="Y40" t="n">
-        <v>1111.93606276637</v>
+        <v>818.1898345020273</v>
       </c>
     </row>
     <row r="41">
@@ -7391,13 +7391,13 @@
         <v>1887.326121586811</v>
       </c>
       <c r="D41" t="n">
-        <v>1541.001747799559</v>
+        <v>1541.001747799558</v>
       </c>
       <c r="E41" t="n">
-        <v>1167.154820020813</v>
+        <v>1167.154820020812</v>
       </c>
       <c r="F41" t="n">
-        <v>768.1102400507029</v>
+        <v>768.1102400507025</v>
       </c>
       <c r="G41" t="n">
         <v>365.9731799930159</v>
@@ -7409,22 +7409,22 @@
         <v>90.51137544774228</v>
       </c>
       <c r="J41" t="n">
-        <v>362.0815903273584</v>
+        <v>362.0815903273588</v>
       </c>
       <c r="K41" t="n">
-        <v>819.8334633619827</v>
+        <v>819.8334633619838</v>
       </c>
       <c r="L41" t="n">
-        <v>1424.616900908818</v>
+        <v>1424.61690090882</v>
       </c>
       <c r="M41" t="n">
-        <v>2129.224441916729</v>
+        <v>2129.224441916731</v>
       </c>
       <c r="N41" t="n">
-        <v>2849.847077961485</v>
+        <v>2849.847077961487</v>
       </c>
       <c r="O41" t="n">
-        <v>3516.975337478952</v>
+        <v>3516.975337478953</v>
       </c>
       <c r="P41" t="n">
         <v>4051.852871560377</v>
@@ -7436,7 +7436,7 @@
         <v>4525.568772387114</v>
       </c>
       <c r="S41" t="n">
-        <v>4449.871691252002</v>
+        <v>4449.871691252001</v>
       </c>
       <c r="T41" t="n">
         <v>4260.186789209373</v>
@@ -7445,13 +7445,13 @@
         <v>4018.677162524933</v>
       </c>
       <c r="V41" t="n">
-        <v>3699.555600000861</v>
+        <v>3699.55560000086</v>
       </c>
       <c r="W41" t="n">
-        <v>3358.728269550245</v>
+        <v>3358.728269550244</v>
       </c>
       <c r="X41" t="n">
-        <v>2997.203836108663</v>
+        <v>2997.203836108662</v>
       </c>
       <c r="Y41" t="n">
         <v>2619.005828952349</v>
@@ -7488,28 +7488,28 @@
         <v>90.51137544774228</v>
       </c>
       <c r="J42" t="n">
-        <v>233.4388880308268</v>
+        <v>90.51137544774228</v>
       </c>
       <c r="K42" t="n">
-        <v>555.8795969195052</v>
+        <v>412.9520843364207</v>
       </c>
       <c r="L42" t="n">
-        <v>697.9593253078218</v>
+        <v>412.9520843364207</v>
       </c>
       <c r="M42" t="n">
-        <v>1277.318030338495</v>
+        <v>992.310789367094</v>
       </c>
       <c r="N42" t="n">
-        <v>1886.419281271447</v>
+        <v>1601.412040300046</v>
       </c>
       <c r="O42" t="n">
-        <v>1886.419281271447</v>
+        <v>2136.400892116646</v>
       </c>
       <c r="P42" t="n">
-        <v>2296.461934061316</v>
+        <v>2546.443544906515</v>
       </c>
       <c r="Q42" t="n">
-        <v>2520.645392035809</v>
+        <v>2552.869467234253</v>
       </c>
       <c r="R42" t="n">
         <v>2552.869467234253</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>856.4027612204084</v>
+        <v>648.4826944912851</v>
       </c>
       <c r="C43" t="n">
-        <v>699.4079031119994</v>
+        <v>491.4878363828761</v>
       </c>
       <c r="D43" t="n">
-        <v>561.2325885191617</v>
+        <v>491.4878363828761</v>
       </c>
       <c r="E43" t="n">
-        <v>425.2608197562668</v>
+        <v>448.1131777812576</v>
       </c>
       <c r="F43" t="n">
-        <v>317.8018029599995</v>
+        <v>448.1131777812576</v>
       </c>
       <c r="G43" t="n">
-        <v>162.4861946159265</v>
+        <v>292.7975694371846</v>
       </c>
       <c r="H43" t="n">
         <v>162.4861946159265</v>
@@ -7567,7 +7567,7 @@
         <v>90.51137544774228</v>
       </c>
       <c r="J43" t="n">
-        <v>178.2357201357872</v>
+        <v>178.2357201357873</v>
       </c>
       <c r="K43" t="n">
         <v>444.701533544489</v>
@@ -7582,10 +7582,10 @@
         <v>1682.296213789863</v>
       </c>
       <c r="O43" t="n">
-        <v>2055.101706737842</v>
+        <v>2055.101706737843</v>
       </c>
       <c r="P43" t="n">
-        <v>2352.269689549497</v>
+        <v>2352.269689549498</v>
       </c>
       <c r="Q43" t="n">
         <v>2478.178979719184</v>
@@ -7597,22 +7597,22 @@
         <v>2248.36561028541</v>
       </c>
       <c r="T43" t="n">
-        <v>2248.36561028541</v>
+        <v>2040.445543556286</v>
       </c>
       <c r="U43" t="n">
-        <v>1971.228390237553</v>
+        <v>1763.30832350843</v>
       </c>
       <c r="V43" t="n">
-        <v>1728.485226851164</v>
+        <v>1520.565160122041</v>
       </c>
       <c r="W43" t="n">
-        <v>1451.009381633702</v>
+        <v>1243.089314904578</v>
       </c>
       <c r="X43" t="n">
-        <v>1234.961155555182</v>
+        <v>1027.041088826059</v>
       </c>
       <c r="Y43" t="n">
-        <v>1026.10990123115</v>
+        <v>818.1898345020269</v>
       </c>
     </row>
     <row r="44">
@@ -7637,25 +7637,25 @@
         <v>768.1102400507025</v>
       </c>
       <c r="G44" t="n">
-        <v>365.9731799930159</v>
+        <v>365.9731799930158</v>
       </c>
       <c r="H44" t="n">
-        <v>90.51137544774228</v>
+        <v>90.51137544774227</v>
       </c>
       <c r="I44" t="n">
-        <v>90.51137544774228</v>
+        <v>90.51137544774227</v>
       </c>
       <c r="J44" t="n">
-        <v>362.0815903273588</v>
+        <v>362.0815903273585</v>
       </c>
       <c r="K44" t="n">
-        <v>819.8334633619838</v>
+        <v>819.8334633619827</v>
       </c>
       <c r="L44" t="n">
-        <v>1424.616900908819</v>
+        <v>1424.616900908818</v>
       </c>
       <c r="M44" t="n">
-        <v>2129.22444191673</v>
+        <v>2129.224441916729</v>
       </c>
       <c r="N44" t="n">
         <v>2849.847077961486</v>
@@ -7670,7 +7670,7 @@
         <v>4405.350877537385</v>
       </c>
       <c r="R44" t="n">
-        <v>4525.568772387114</v>
+        <v>4525.568772387113</v>
       </c>
       <c r="S44" t="n">
         <v>4449.871691252001</v>
@@ -7719,13 +7719,13 @@
         <v>176.5715461918961</v>
       </c>
       <c r="H45" t="n">
-        <v>91.2064138180846</v>
+        <v>91.20641381808458</v>
       </c>
       <c r="I45" t="n">
-        <v>90.51137544774228</v>
+        <v>90.51137544774227</v>
       </c>
       <c r="J45" t="n">
-        <v>233.4388880308268</v>
+        <v>233.4388880308267</v>
       </c>
       <c r="K45" t="n">
         <v>555.8795969195052</v>
@@ -7734,19 +7734,19 @@
         <v>1035.763462830452</v>
       </c>
       <c r="M45" t="n">
-        <v>1152.371831311764</v>
+        <v>1615.122167861125</v>
       </c>
       <c r="N45" t="n">
-        <v>1761.473082244716</v>
+        <v>2142.826814444384</v>
       </c>
       <c r="O45" t="n">
-        <v>2296.461934061316</v>
+        <v>2142.826814444384</v>
       </c>
       <c r="P45" t="n">
-        <v>2296.461934061316</v>
+        <v>2552.869467234253</v>
       </c>
       <c r="Q45" t="n">
-        <v>2520.645392035809</v>
+        <v>2552.869467234253</v>
       </c>
       <c r="R45" t="n">
         <v>2552.869467234253</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>747.9205983396587</v>
+        <v>811.9175479343689</v>
       </c>
       <c r="C46" t="n">
-        <v>590.9257402312497</v>
+        <v>654.92268982596</v>
       </c>
       <c r="D46" t="n">
-        <v>452.7504256384119</v>
+        <v>516.7473752331223</v>
       </c>
       <c r="E46" t="n">
-        <v>452.7504256384119</v>
+        <v>380.7756064702273</v>
       </c>
       <c r="F46" t="n">
-        <v>317.8018029599995</v>
+        <v>245.8269837918152</v>
       </c>
       <c r="G46" t="n">
-        <v>162.4861946159265</v>
+        <v>90.51137544774227</v>
       </c>
       <c r="H46" t="n">
-        <v>162.4861946159265</v>
+        <v>90.51137544774227</v>
       </c>
       <c r="I46" t="n">
-        <v>90.51137544774228</v>
+        <v>90.51137544774227</v>
       </c>
       <c r="J46" t="n">
-        <v>178.2357201357872</v>
+        <v>178.2357201357873</v>
       </c>
       <c r="K46" t="n">
-        <v>444.7015335444889</v>
+        <v>444.701533544489</v>
       </c>
       <c r="L46" t="n">
-        <v>837.9394638946835</v>
+        <v>837.9394638946836</v>
       </c>
       <c r="M46" t="n">
         <v>1262.306638257102</v>
@@ -7819,37 +7819,37 @@
         <v>1682.296213789863</v>
       </c>
       <c r="O46" t="n">
-        <v>2055.101706737842</v>
+        <v>2055.101706737843</v>
       </c>
       <c r="P46" t="n">
-        <v>2352.269689549498</v>
+        <v>2352.269689549497</v>
       </c>
       <c r="Q46" t="n">
-        <v>2478.178979719184</v>
+        <v>2478.178979719185</v>
       </c>
       <c r="R46" t="n">
-        <v>2420.339288401829</v>
+        <v>2478.178979719185</v>
       </c>
       <c r="S46" t="n">
-        <v>2248.36561028541</v>
+        <v>2411.800463728493</v>
       </c>
       <c r="T46" t="n">
-        <v>2040.445543556286</v>
+        <v>2203.88039699937</v>
       </c>
       <c r="U46" t="n">
-        <v>1763.30832350843</v>
+        <v>1926.743176951514</v>
       </c>
       <c r="V46" t="n">
-        <v>1620.003063970415</v>
+        <v>1684.000013565125</v>
       </c>
       <c r="W46" t="n">
-        <v>1342.527218752952</v>
+        <v>1406.524168347662</v>
       </c>
       <c r="X46" t="n">
-        <v>1126.478992674433</v>
+        <v>1190.475942269143</v>
       </c>
       <c r="Y46" t="n">
-        <v>917.6277383504005</v>
+        <v>981.6246879451106</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>92.06191329280011</v>
+        <v>92.06191329279952</v>
       </c>
       <c r="K2" t="n">
-        <v>86.72591490550931</v>
+        <v>86.72591490551088</v>
       </c>
       <c r="L2" t="n">
-        <v>70.31665934305323</v>
+        <v>70.3166593430535</v>
       </c>
       <c r="M2" t="n">
-        <v>46.25150133729363</v>
+        <v>46.25150133729579</v>
       </c>
       <c r="N2" t="n">
-        <v>42.33948647951536</v>
+        <v>42.33948647951581</v>
       </c>
       <c r="O2" t="n">
-        <v>53.44993733213093</v>
+        <v>53.44993733213298</v>
       </c>
       <c r="P2" t="n">
-        <v>80.46778072209531</v>
+        <v>80.46778072209705</v>
       </c>
       <c r="Q2" t="n">
-        <v>109.0872921559756</v>
+        <v>109.0872921559753</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>73.83937108913167</v>
+        <v>73.8393710891323</v>
       </c>
       <c r="K3" t="n">
-        <v>47.25897875440141</v>
+        <v>47.25897875440083</v>
       </c>
       <c r="L3" t="n">
-        <v>16.75508344424118</v>
+        <v>16.75508344424259</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,13 +8070,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>9.130000058643361</v>
+        <v>9.130000058643194</v>
       </c>
       <c r="P3" t="n">
-        <v>26.85597970277001</v>
+        <v>26.85597970277125</v>
       </c>
       <c r="Q3" t="n">
-        <v>68.37594193669796</v>
+        <v>68.37594193669878</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8137,22 +8137,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>74.37427626277801</v>
+        <v>74.374276262777</v>
       </c>
       <c r="L4" t="n">
-        <v>64.96559098237566</v>
+        <v>64.96559098237647</v>
       </c>
       <c r="M4" t="n">
-        <v>65.20591187910269</v>
+        <v>65.20591187910189</v>
       </c>
       <c r="N4" t="n">
-        <v>55.71856618250388</v>
+        <v>55.71856618250472</v>
       </c>
       <c r="O4" t="n">
-        <v>71.98338581476828</v>
+        <v>71.98338581476736</v>
       </c>
       <c r="P4" t="n">
-        <v>80.84873837615825</v>
+        <v>80.84873837615727</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8213,25 +8213,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>81.3904371773047</v>
+        <v>88.26648291901614</v>
       </c>
       <c r="K5" t="n">
-        <v>77.60818424490023</v>
+        <v>70.73213850318879</v>
       </c>
       <c r="L5" t="n">
-        <v>57.35101119123405</v>
+        <v>50.47496544952261</v>
       </c>
       <c r="M5" t="n">
-        <v>24.17379379562163</v>
+        <v>31.04983953733307</v>
       </c>
       <c r="N5" t="n">
-        <v>19.9045385482865</v>
+        <v>26.50276426002979</v>
       </c>
       <c r="O5" t="n">
-        <v>38.86347789263867</v>
+        <v>39.14129792260681</v>
       </c>
       <c r="P5" t="n">
-        <v>69.26318781224035</v>
+        <v>62.38714207052891</v>
       </c>
       <c r="Q5" t="n">
         <v>95.50948551532161</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>67.48351302167279</v>
+        <v>74.08173873341609</v>
       </c>
       <c r="K6" t="n">
         <v>36.39580497093574</v>
@@ -8313,7 +8313,7 @@
         <v>14.00971683006097</v>
       </c>
       <c r="Q6" t="n">
-        <v>66.386781120642</v>
+        <v>59.7885554088987</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8380,16 +8380,16 @@
         <v>63.45653465754863</v>
       </c>
       <c r="M7" t="n">
-        <v>63.24104316971207</v>
+        <v>56.36499742800063</v>
       </c>
       <c r="N7" t="n">
         <v>53.96391465834506</v>
       </c>
       <c r="O7" t="n">
-        <v>70.6097656826483</v>
+        <v>70.88758571261646</v>
       </c>
       <c r="P7" t="n">
-        <v>74.02744707780755</v>
+        <v>80.62567278955083</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>78.97176601276048</v>
+        <v>69.7524721116465</v>
       </c>
       <c r="K8" t="n">
-        <v>67.65170328379861</v>
+        <v>53.28984570098885</v>
       </c>
       <c r="L8" t="n">
         <v>28.83625887535973</v>
       </c>
       <c r="M8" t="n">
-        <v>14.45842098228115</v>
+        <v>14.45842098228117</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>9.161922983629808</v>
+        <v>18.38121688474379</v>
       </c>
       <c r="P8" t="n">
         <v>57.03084269788445</v>
       </c>
       <c r="Q8" t="n">
-        <v>80.70197082457099</v>
+        <v>95.06382840738073</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8617,16 +8617,16 @@
         <v>61.79782667156746</v>
       </c>
       <c r="M10" t="n">
-        <v>60.50496393539197</v>
+        <v>61.08524100944489</v>
       </c>
       <c r="N10" t="n">
-        <v>37.67551094615368</v>
+        <v>51.45709145491051</v>
       </c>
       <c r="O10" t="n">
         <v>69.67956153369326</v>
       </c>
       <c r="P10" t="n">
-        <v>80.95022603890608</v>
+        <v>66.58836845609632</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>2.046363078989089e-12</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9878,7 +9878,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -22556,10 +22556,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>6.876045741713073</v>
       </c>
       <c r="G2" t="n">
-        <v>14.25430980652214</v>
+        <v>14.25430980652377</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>42.29598390943437</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>293.1599470173725</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>105.9662665295219</v>
       </c>
       <c r="T11" t="n">
-        <v>203.2991178962956</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.983862266277</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>72.82509436085181</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>103.7516465530454</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>103.3390251194566</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.1912047201446</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>94.44538142994566</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,16 +23467,16 @@
         <v>188.6638881716917</v>
       </c>
       <c r="T13" t="n">
-        <v>219.2779975468616</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2083792473664</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>3.636465166049874</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>169.1432271642948</v>
+        <v>165.5067619982434</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5843638319352</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>72.78166694441306</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>2.113702616565692</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>69.08320597548447</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,16 +23707,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1877594186805</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23795,7 +23795,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>16.44291813432059</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>71.2550709765023</v>
+        <v>71.25507097650231</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,13 +23938,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>170.2539413352547</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>274.3658478473775</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>120.5548246464434</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,13 +24130,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>22.59757845480375</v>
       </c>
       <c r="E22" t="n">
-        <v>27.70660551568301</v>
+        <v>134.6120510752662</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>133.5991364516282</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>71.25507097650225</v>
+        <v>71.25507097650231</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.26129440418138</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>205.8408660618324</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>136.7935614469093</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>134.6120510752661</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>90.6582244360244</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>129.0082610730455</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>233.0555758851548</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>129.0082610730455</v>
+        <v>129.0082610730456</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>71.25507097650231</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,19 +24646,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>57.26129440418143</v>
       </c>
       <c r="S28" t="n">
-        <v>170.2539413352547</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>104.5392105044718</v>
       </c>
       <c r="V28" t="n">
-        <v>62.80163454989979</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>129.0082610730455</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>62.80163454989906</v>
+        <v>71.25507097650231</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.26129440418143</v>
       </c>
       <c r="S31" t="n">
-        <v>170.2539413352546</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>205.8408660618325</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>27.70660551568517</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>136.7935614469094</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>134.6120510752662</v>
       </c>
       <c r="F34" t="n">
-        <v>22.03182922034235</v>
+        <v>19.40315345952439</v>
       </c>
       <c r="G34" t="n">
-        <v>153.7624522606323</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>129.0082610730456</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>71.25507097650235</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.26129440418148</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>136.7935614469093</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>87.69798911082236</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>129.0082610730455</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>274.3658478473775</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>96.26201443824618</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25552,13 +25552,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>93.85264943130636</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>134.6120510752662</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>133.5991364516282</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>71.25507097650237</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,7 +25600,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>205.8408660618326</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>84.96789991986671</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>136.7935614469094</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>91.67113905966387</v>
       </c>
       <c r="F43" t="n">
-        <v>27.21470982332401</v>
+        <v>133.5991364516283</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>129.0082610730456</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>205.8408660618326</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26029,7 +26029,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>134.6120510752662</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>129.0082610730456</v>
+        <v>129.0082610730455</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>71.2550709765023</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.26129440418141</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>104.5392105044704</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>98.44352480989059</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>931845.3662246644</v>
+        <v>931845.3662246645</v>
       </c>
     </row>
     <row r="3">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>881095.7069288341</v>
+        <v>881095.7069288343</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>903346.5649952126</v>
+        <v>903346.5649952125</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>903346.5649952125</v>
+        <v>903346.5649952126</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>903346.5649952124</v>
+        <v>903346.5649952125</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>903346.5649952124</v>
+        <v>903346.5649952125</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>532583.8658157185</v>
+        <v>532583.8658157184</v>
       </c>
       <c r="C2" t="n">
-        <v>533301.9044818667</v>
+        <v>533301.9044818666</v>
       </c>
       <c r="D2" t="n">
         <v>533677.1504117841</v>
       </c>
       <c r="E2" t="n">
-        <v>453579.4612922366</v>
+        <v>453579.4612922364</v>
       </c>
       <c r="F2" t="n">
-        <v>514880.7202432853</v>
+        <v>514880.7202432856</v>
       </c>
       <c r="G2" t="n">
         <v>528028.9545552366</v>
       </c>
       <c r="H2" t="n">
+        <v>528028.9545552366</v>
+      </c>
+      <c r="I2" t="n">
+        <v>528028.9545552366</v>
+      </c>
+      <c r="J2" t="n">
         <v>528028.9545552365</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>528028.9545552364</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>528028.9545552366</v>
-      </c>
-      <c r="K2" t="n">
-        <v>528028.9545552366</v>
-      </c>
-      <c r="L2" t="n">
-        <v>528028.9545552367</v>
       </c>
       <c r="M2" t="n">
         <v>528028.9545552366</v>
       </c>
       <c r="N2" t="n">
+        <v>528028.9545552364</v>
+      </c>
+      <c r="O2" t="n">
         <v>528028.9545552367</v>
-      </c>
-      <c r="O2" t="n">
-        <v>528028.9545552364</v>
       </c>
       <c r="P2" t="n">
         <v>528028.9545552366</v>
@@ -26363,10 +26363,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>251306.7941829319</v>
+        <v>251306.7941829284</v>
       </c>
       <c r="C3" t="n">
-        <v>30701.63307740797</v>
+        <v>30701.63307741124</v>
       </c>
       <c r="D3" t="n">
         <v>31536.59222128533</v>
@@ -26375,25 +26375,25 @@
         <v>898544.2814926291</v>
       </c>
       <c r="F3" t="n">
-        <v>239312.423052671</v>
+        <v>239312.4230526712</v>
       </c>
       <c r="G3" t="n">
-        <v>9457.529257042621</v>
+        <v>9457.529257042428</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>2.920821771112969e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>1769.674140452701</v>
+        <v>1769.674140453151</v>
       </c>
       <c r="L3" t="n">
-        <v>11352.12086171787</v>
+        <v>11352.12086171786</v>
       </c>
       <c r="M3" t="n">
         <v>214348.7764957315</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>364025.9487187511</v>
+        <v>364025.9487187519</v>
       </c>
       <c r="C4" t="n">
-        <v>356375.003186731</v>
+        <v>356375.0031867311</v>
       </c>
       <c r="D4" t="n">
-        <v>347843.7333873974</v>
+        <v>347843.7333873973</v>
       </c>
       <c r="E4" t="n">
         <v>10402.64228377604</v>
@@ -26430,19 +26430,19 @@
         <v>10535.60566055929</v>
       </c>
       <c r="G4" t="n">
-        <v>22110.29797432448</v>
+        <v>22110.29797432445</v>
       </c>
       <c r="H4" t="n">
-        <v>22110.29797432452</v>
+        <v>22110.29797432444</v>
       </c>
       <c r="I4" t="n">
-        <v>22110.29797432454</v>
+        <v>22110.29797432445</v>
       </c>
       <c r="J4" t="n">
-        <v>22110.29797432453</v>
+        <v>22110.29797432444</v>
       </c>
       <c r="K4" t="n">
-        <v>22110.29797432451</v>
+        <v>22110.29797432443</v>
       </c>
       <c r="L4" t="n">
         <v>22110.29797432439</v>
@@ -26451,13 +26451,13 @@
         <v>22110.29797432445</v>
       </c>
       <c r="N4" t="n">
-        <v>22110.29797432437</v>
+        <v>22110.29797432438</v>
       </c>
       <c r="O4" t="n">
-        <v>22110.29797432441</v>
+        <v>22110.29797432439</v>
       </c>
       <c r="P4" t="n">
-        <v>22110.29797432439</v>
+        <v>22110.29797432445</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>39312.96135688073</v>
+        <v>39312.96135688057</v>
       </c>
       <c r="C5" t="n">
         <v>40412.84643290664</v>
@@ -26485,16 +26485,16 @@
         <v>98876.29550754456</v>
       </c>
       <c r="H5" t="n">
-        <v>98876.29550754456</v>
+        <v>98876.29550754458</v>
       </c>
       <c r="I5" t="n">
-        <v>98876.29550754459</v>
+        <v>98876.29550754458</v>
       </c>
       <c r="J5" t="n">
         <v>98876.29550754459</v>
       </c>
       <c r="K5" t="n">
-        <v>98876.29550754456</v>
+        <v>98876.29550754458</v>
       </c>
       <c r="L5" t="n">
         <v>98876.29550754458</v>
@@ -26503,7 +26503,7 @@
         <v>98876.29550754458</v>
       </c>
       <c r="N5" t="n">
-        <v>98876.29550754458</v>
+        <v>98876.29550754459</v>
       </c>
       <c r="O5" t="n">
         <v>98876.29550754458</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-122061.8384428452</v>
+        <v>-122066.0433835965</v>
       </c>
       <c r="C6" t="n">
-        <v>105812.4217848211</v>
+        <v>105810.9785312411</v>
       </c>
       <c r="D6" t="n">
         <v>112685.2686447154</v>
       </c>
       <c r="E6" t="n">
-        <v>-533060.5492764573</v>
+        <v>-533368.6173115326</v>
       </c>
       <c r="F6" t="n">
-        <v>167150.2523063984</v>
+        <v>167077.9583442119</v>
       </c>
       <c r="G6" t="n">
-        <v>397584.831816325</v>
+        <v>397563.1079861077</v>
       </c>
       <c r="H6" t="n">
-        <v>407042.3610733675</v>
+        <v>407020.63724315</v>
       </c>
       <c r="I6" t="n">
-        <v>407042.3610733669</v>
+        <v>407020.6372431501</v>
       </c>
       <c r="J6" t="n">
-        <v>407042.3610733675</v>
+        <v>407020.63724315</v>
       </c>
       <c r="K6" t="n">
-        <v>405272.6869329148</v>
+        <v>405250.9631026968</v>
       </c>
       <c r="L6" t="n">
-        <v>395690.2402116499</v>
+        <v>395668.5163814323</v>
       </c>
       <c r="M6" t="n">
-        <v>192693.5845776361</v>
+        <v>192671.8607474186</v>
       </c>
       <c r="N6" t="n">
-        <v>344121.4564401989</v>
+        <v>344099.7326099811</v>
       </c>
       <c r="O6" t="n">
-        <v>407042.3610733674</v>
+        <v>407020.6372431503</v>
       </c>
       <c r="P6" t="n">
-        <v>407042.3610733676</v>
+        <v>407020.6372431501</v>
       </c>
     </row>
   </sheetData>
@@ -26698,19 +26698,19 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="H2" t="n">
-        <v>11.8219115713031</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="I2" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="J2" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="K2" t="n">
-        <v>11.8219115713031</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="L2" t="n">
         <v>11.82191157130297</v>
@@ -26719,13 +26719,13 @@
         <v>11.82191157130304</v>
       </c>
       <c r="N2" t="n">
-        <v>11.82191157130297</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="O2" t="n">
         <v>11.82191157130297</v>
       </c>
       <c r="P2" t="n">
-        <v>11.82191157130297</v>
+        <v>11.82191157130304</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>260.7963925174648</v>
+        <v>260.7963925174618</v>
       </c>
       <c r="C3" t="n">
         <v>292.0726078812197</v>
@@ -26808,7 +26808,7 @@
         <v>1131.392193096778</v>
       </c>
       <c r="I4" t="n">
-        <v>1131.392193096779</v>
+        <v>1131.392193096778</v>
       </c>
       <c r="J4" t="n">
         <v>1131.392193096779</v>
@@ -26829,7 +26829,7 @@
         <v>1131.392193096779</v>
       </c>
       <c r="P4" t="n">
-        <v>1131.392193096779</v>
+        <v>1131.392193096778</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>11.82191157130293</v>
+        <v>11.82191157130299</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>260.7963925174648</v>
+        <v>260.7963925174618</v>
       </c>
       <c r="C3" t="n">
-        <v>31.27621536375483</v>
+        <v>31.27621536375784</v>
       </c>
       <c r="D3" t="n">
         <v>34.10882410736508</v>
@@ -26969,16 +26969,16 @@
         <v>798.7613441105898</v>
       </c>
       <c r="F3" t="n">
-        <v>209.6349249729619</v>
+        <v>209.6349249729622</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-9.731729322130408e-13</v>
       </c>
       <c r="C4" t="n">
-        <v>6.876045741711437</v>
+        <v>6.876045741713073</v>
       </c>
       <c r="D4" t="n">
         <v>7.485811841098311</v>
@@ -27030,16 +27030,16 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>6.876045741711096</v>
+        <v>6.876045741712845</v>
       </c>
       <c r="L4" t="n">
-        <v>7.485811841098766</v>
+        <v>7.485811841098538</v>
       </c>
       <c r="M4" t="n">
         <v>860.1337719126959</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27258,7 +27258,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>6.876045741711437</v>
+        <v>6.876045741713073</v>
       </c>
       <c r="L4" t="n">
         <v>7.485811841098311</v>
@@ -27394,10 +27394,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>328.737591844935</v>
+        <v>328.7375918449352</v>
       </c>
       <c r="I2" t="n">
-        <v>170.0563803341062</v>
+        <v>170.0563803341066</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>84.01082088999308</v>
+        <v>84.01082088999549</v>
       </c>
       <c r="S2" t="n">
-        <v>185.1290231762283</v>
+        <v>185.1290231762302</v>
       </c>
       <c r="T2" t="n">
         <v>218.5063572696783</v>
@@ -27461,22 +27461,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>147.4450655646404</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933854</v>
       </c>
       <c r="G3" t="n">
-        <v>136.7825588849655</v>
+        <v>136.7825588849672</v>
       </c>
       <c r="H3" t="n">
         <v>106.817768233445</v>
       </c>
       <c r="I3" t="n">
-        <v>70.08293774516886</v>
+        <v>70.08293774516909</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>65.32921403493339</v>
+        <v>65.32921403493542</v>
       </c>
       <c r="S3" t="n">
-        <v>161.2636171197674</v>
+        <v>161.2636171197675</v>
       </c>
       <c r="T3" t="n">
         <v>197.9036731785617</v>
@@ -27537,10 +27537,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986295</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182139</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27552,13 +27552,13 @@
         <v>167.5206907817879</v>
       </c>
       <c r="H4" t="n">
-        <v>158.0458795257661</v>
+        <v>158.0458795257662</v>
       </c>
       <c r="I4" t="n">
-        <v>141.3076148215571</v>
+        <v>141.3076148215573</v>
       </c>
       <c r="J4" t="n">
-        <v>60.10977774604451</v>
+        <v>60.10977774604654</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.78178798155719</v>
+        <v>46.78178798155929</v>
       </c>
       <c r="R4" t="n">
-        <v>156.1475068297698</v>
+        <v>156.14750682977</v>
       </c>
       <c r="S4" t="n">
         <v>215.8207507508087</v>
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>359.2164706817081</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27634,7 +27634,7 @@
         <v>327.4499233400343</v>
       </c>
       <c r="I5" t="n">
-        <v>158.3329927117468</v>
+        <v>159.1526173641589</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>76.11271209263244</v>
+        <v>69.236666350921</v>
       </c>
       <c r="S5" t="n">
         <v>182.2638703818502</v>
@@ -27698,7 +27698,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>140.5690198229273</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27740,16 +27740,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>61.15236399069457</v>
+        <v>54.27631824898314</v>
       </c>
       <c r="S6" t="n">
-        <v>160.0140437983948</v>
+        <v>153.1379980566833</v>
       </c>
       <c r="T6" t="n">
         <v>190.7564685508192</v>
       </c>
       <c r="U6" t="n">
-        <v>219.0240053098462</v>
+        <v>219.8436299622582</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27761,7 +27761,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>199.6262746880049</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27777,25 +27777,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>141.7394272765009</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>140.3775415572698</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>138.5450022812198</v>
       </c>
       <c r="G7" t="n">
-        <v>167.4642910491648</v>
+        <v>160.5882453074533</v>
       </c>
       <c r="H7" t="n">
-        <v>150.6683888885505</v>
+        <v>157.544434630262</v>
       </c>
       <c r="I7" t="n">
         <v>139.6115210441259</v>
       </c>
       <c r="J7" t="n">
-        <v>56.12231664958679</v>
+        <v>49.24627090787536</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27834,10 +27834,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4665772472916</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>218.8336096473257</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>369.7135152982195</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27862,7 +27862,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>392.5141881589017</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>67.49929129932882</v>
+        <v>53.13743371651906</v>
       </c>
       <c r="S8" t="n">
-        <v>172.994947228264</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T8" t="n">
-        <v>202.9938544193918</v>
+        <v>217.3557120022016</v>
       </c>
       <c r="U8" t="n">
-        <v>236.8788927539349</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27929,10 +27929,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>152.1713260670576</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>158.346641405506</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27947,7 +27947,7 @@
         <v>136.6419193661031</v>
       </c>
       <c r="H9" t="n">
-        <v>92.8095624054929</v>
+        <v>91.09762898162197</v>
       </c>
       <c r="I9" t="n">
         <v>65.24074378433592</v>
@@ -27995,10 +27995,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>191.4111276206677</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>193.0327716183655</v>
       </c>
     </row>
     <row r="10">
@@ -28011,13 +28011,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>154.596896939689</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>134.2536154354026</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>132.0721050637594</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28032,7 +28032,7 @@
         <v>137.761816287615</v>
       </c>
       <c r="J10" t="n">
-        <v>37.41186357361347</v>
+        <v>51.77372115642321</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>36.90864702141809</v>
+        <v>22.54678943860834</v>
       </c>
       <c r="R10" t="n">
         <v>150.8459592031442</v>
@@ -28068,13 +28068,13 @@
         <v>286.286945936951</v>
       </c>
       <c r="V10" t="n">
-        <v>239.4877191648892</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1611407537812</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>211.3477978062274</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="C17" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="D17" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="E17" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="F17" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="G17" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="H17" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="I17" t="n">
         <v>3.636465166049874</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="T17" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="U17" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="V17" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="W17" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="X17" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="Y17" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130304</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="C19" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="D19" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="E19" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="F19" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="G19" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="H19" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="I19" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="J19" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="K19" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="L19" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="M19" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="N19" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="O19" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="P19" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="Q19" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="R19" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="S19" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="T19" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="U19" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="V19" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="W19" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="X19" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="Y19" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130304</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>11.8219115713031</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="C20" t="n">
-        <v>11.8219115713031</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="D20" t="n">
-        <v>11.8219115713031</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="E20" t="n">
-        <v>11.8219115713031</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="F20" t="n">
-        <v>11.8219115713031</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="G20" t="n">
-        <v>11.8219115713031</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="H20" t="n">
-        <v>11.8219115713031</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="I20" t="n">
-        <v>3.636465166049931</v>
+        <v>3.636465166049845</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>11.8219115713031</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="T20" t="n">
-        <v>11.8219115713031</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="U20" t="n">
-        <v>11.8219115713031</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="V20" t="n">
-        <v>11.8219115713031</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="W20" t="n">
-        <v>11.8219115713031</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="X20" t="n">
-        <v>11.8219115713031</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="Y20" t="n">
-        <v>11.8219115713031</v>
+        <v>11.82191157130302</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>11.8219115713031</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="C22" t="n">
-        <v>11.8219115713031</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="D22" t="n">
-        <v>11.8219115713031</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="E22" t="n">
-        <v>11.8219115713031</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="F22" t="n">
-        <v>11.8219115713031</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="G22" t="n">
-        <v>11.8219115713031</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="H22" t="n">
-        <v>11.8219115713031</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="I22" t="n">
-        <v>11.8219115713031</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="J22" t="n">
-        <v>11.8219115713031</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="K22" t="n">
-        <v>11.8219115713031</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="L22" t="n">
-        <v>11.8219115713031</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="M22" t="n">
-        <v>11.8219115713031</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="N22" t="n">
-        <v>11.8219115713031</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="O22" t="n">
-        <v>11.8219115713031</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="P22" t="n">
-        <v>11.8219115713031</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="Q22" t="n">
-        <v>11.8219115713031</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="R22" t="n">
-        <v>11.8219115713031</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="S22" t="n">
-        <v>11.8219115713031</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="T22" t="n">
-        <v>11.8219115713031</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="U22" t="n">
-        <v>11.8219115713031</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="V22" t="n">
-        <v>11.8219115713031</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="W22" t="n">
-        <v>11.8219115713031</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="X22" t="n">
-        <v>11.8219115713031</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="Y22" t="n">
-        <v>11.8219115713031</v>
+        <v>11.82191157130302</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="C23" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="D23" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="E23" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="F23" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="G23" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="H23" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="I23" t="n">
-        <v>3.636465166049874</v>
+        <v>3.636465166049845</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="T23" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="U23" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="V23" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="W23" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="X23" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="Y23" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130304</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="C25" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="D25" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="E25" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="F25" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="G25" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="H25" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="I25" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="J25" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="K25" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="L25" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="M25" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="N25" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="O25" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="P25" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="Q25" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="R25" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="S25" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="T25" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="U25" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="V25" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="W25" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="X25" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="Y25" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130304</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="C26" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="D26" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="E26" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="F26" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="G26" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="H26" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="I26" t="n">
-        <v>3.636465166049874</v>
+        <v>3.636465166049845</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="T26" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="U26" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="V26" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="W26" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="X26" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="Y26" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130302</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="C28" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="D28" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="E28" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="F28" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="G28" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="H28" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="I28" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="J28" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="K28" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="L28" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="M28" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="N28" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="O28" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="P28" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="Q28" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="R28" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="S28" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="T28" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="U28" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="V28" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="W28" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="X28" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="Y28" t="n">
-        <v>11.82191157130306</v>
+        <v>11.82191157130302</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>11.8219115713031</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="C29" t="n">
-        <v>11.8219115713031</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="D29" t="n">
-        <v>11.8219115713031</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="E29" t="n">
-        <v>11.8219115713031</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="F29" t="n">
-        <v>11.8219115713031</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="G29" t="n">
-        <v>11.8219115713031</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="H29" t="n">
-        <v>11.8219115713031</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="I29" t="n">
-        <v>3.636465166049874</v>
+        <v>3.636465166049845</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>11.8219115713031</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="T29" t="n">
-        <v>11.8219115713031</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="U29" t="n">
-        <v>11.8219115713031</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="V29" t="n">
-        <v>11.8219115713031</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="W29" t="n">
-        <v>11.8219115713031</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="X29" t="n">
-        <v>11.8219115713031</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="Y29" t="n">
-        <v>11.8219115713031</v>
+        <v>11.82191157130302</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>11.8219115713031</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="C31" t="n">
-        <v>11.8219115713031</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="D31" t="n">
-        <v>11.8219115713031</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="E31" t="n">
-        <v>11.8219115713031</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="F31" t="n">
-        <v>11.8219115713031</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="G31" t="n">
-        <v>11.8219115713031</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="H31" t="n">
-        <v>11.8219115713031</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="I31" t="n">
-        <v>11.8219115713031</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="J31" t="n">
-        <v>11.8219115713031</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="K31" t="n">
-        <v>11.8219115713031</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="L31" t="n">
-        <v>11.8219115713031</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="M31" t="n">
-        <v>11.8219115713031</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="N31" t="n">
-        <v>11.8219115713031</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="O31" t="n">
-        <v>11.8219115713031</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="P31" t="n">
-        <v>11.8219115713031</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="Q31" t="n">
-        <v>11.8219115713031</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="R31" t="n">
-        <v>11.8219115713031</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="S31" t="n">
-        <v>11.8219115713031</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="T31" t="n">
-        <v>11.8219115713031</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="U31" t="n">
-        <v>11.8219115713031</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="V31" t="n">
-        <v>11.8219115713031</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="W31" t="n">
-        <v>11.8219115713031</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="X31" t="n">
-        <v>11.8219115713031</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="Y31" t="n">
-        <v>11.8219115713031</v>
+        <v>11.82191157130302</v>
       </c>
     </row>
     <row r="32">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>11.82191157130297</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="C38" t="n">
-        <v>11.82191157130297</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="D38" t="n">
-        <v>11.82191157130297</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="E38" t="n">
-        <v>11.82191157130297</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="F38" t="n">
-        <v>11.82191157130297</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="G38" t="n">
-        <v>11.82191157130297</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="H38" t="n">
-        <v>11.82191157130297</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="I38" t="n">
-        <v>3.636465166049845</v>
+        <v>3.636465166048537</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.82191157130297</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="T38" t="n">
-        <v>11.82191157130251</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="U38" t="n">
-        <v>11.82191157130297</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="V38" t="n">
-        <v>11.82191157130297</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="W38" t="n">
-        <v>11.82191157130297</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="X38" t="n">
-        <v>11.82191157130297</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="Y38" t="n">
-        <v>11.82191157130297</v>
+        <v>11.82191157130302</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>11.82191157130297</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="C40" t="n">
-        <v>11.82191157130297</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="D40" t="n">
-        <v>11.82191157130297</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="E40" t="n">
-        <v>11.82191157130297</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="F40" t="n">
-        <v>11.82191157130297</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="G40" t="n">
-        <v>11.82191157130297</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="H40" t="n">
-        <v>11.82191157130297</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="I40" t="n">
-        <v>11.82191157130297</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="J40" t="n">
-        <v>11.82191157130297</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="K40" t="n">
-        <v>11.82191157130297</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="L40" t="n">
-        <v>11.82191157130297</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="M40" t="n">
-        <v>11.82191157130297</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="N40" t="n">
-        <v>11.82191157130297</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="O40" t="n">
-        <v>11.82191157130297</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="P40" t="n">
-        <v>11.82191157130297</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="Q40" t="n">
-        <v>11.82191157130297</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="R40" t="n">
-        <v>11.82191157130297</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="S40" t="n">
-        <v>11.82191157130297</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="T40" t="n">
-        <v>11.82191157130297</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="U40" t="n">
-        <v>11.82191157130297</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="V40" t="n">
-        <v>11.82191157130297</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="W40" t="n">
-        <v>11.82191157130297</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="X40" t="n">
-        <v>11.82191157130297</v>
+        <v>11.82191157130302</v>
       </c>
       <c r="Y40" t="n">
-        <v>11.82191157130297</v>
+        <v>11.82191157130302</v>
       </c>
     </row>
     <row r="41">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>11.82191157130297</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="C44" t="n">
-        <v>11.82191157130297</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="D44" t="n">
-        <v>11.82191157130297</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="E44" t="n">
-        <v>11.82191157130297</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="F44" t="n">
-        <v>11.82191157130297</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="G44" t="n">
-        <v>11.82191157130297</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="H44" t="n">
-        <v>11.82191157130297</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="I44" t="n">
         <v>3.636465166049845</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.82191157130297</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="T44" t="n">
-        <v>11.82191157130297</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="U44" t="n">
-        <v>11.82191157130297</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="V44" t="n">
-        <v>11.82191157130297</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="W44" t="n">
-        <v>11.82191157130297</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="X44" t="n">
-        <v>11.82191157130297</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="Y44" t="n">
-        <v>11.82191157130297</v>
+        <v>11.82191157130304</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>11.82191157130297</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="C46" t="n">
-        <v>11.82191157130297</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="D46" t="n">
-        <v>11.82191157130297</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="E46" t="n">
-        <v>11.82191157130297</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="F46" t="n">
-        <v>11.82191157130297</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="G46" t="n">
-        <v>11.82191157130297</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="H46" t="n">
-        <v>11.82191157130297</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="I46" t="n">
-        <v>11.82191157130297</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="J46" t="n">
-        <v>11.82191157130297</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="K46" t="n">
-        <v>11.82191157130297</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="L46" t="n">
-        <v>11.82191157130297</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="M46" t="n">
-        <v>11.82191157130297</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="N46" t="n">
-        <v>11.82191157130297</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="O46" t="n">
-        <v>11.82191157130297</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="P46" t="n">
-        <v>11.82191157130297</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="Q46" t="n">
-        <v>11.82191157130297</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="R46" t="n">
-        <v>11.82191157130297</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="S46" t="n">
-        <v>11.82191157130297</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="T46" t="n">
-        <v>11.82191157130297</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="U46" t="n">
-        <v>11.82191157130297</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="V46" t="n">
-        <v>11.82191157130297</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="W46" t="n">
-        <v>11.82191157130297</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="X46" t="n">
-        <v>11.82191157130297</v>
+        <v>11.82191157130304</v>
       </c>
       <c r="Y46" t="n">
-        <v>11.82191157130297</v>
+        <v>11.82191157130304</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.048427708612923</v>
+        <v>1.048427708612911</v>
       </c>
       <c r="H2" t="n">
-        <v>10.7372102708321</v>
+        <v>10.73721027083198</v>
       </c>
       <c r="I2" t="n">
-        <v>40.41950923629976</v>
+        <v>40.41950923629929</v>
       </c>
       <c r="J2" t="n">
-        <v>88.98399123388617</v>
+        <v>88.98399123388513</v>
       </c>
       <c r="K2" t="n">
-        <v>133.3639361394712</v>
+        <v>133.3639361394697</v>
       </c>
       <c r="L2" t="n">
-        <v>165.449755626934</v>
+        <v>165.4497556269321</v>
       </c>
       <c r="M2" t="n">
-        <v>184.0947318899791</v>
+        <v>184.0947318899769</v>
       </c>
       <c r="N2" t="n">
-        <v>187.0735771170756</v>
+        <v>187.0735771170734</v>
       </c>
       <c r="O2" t="n">
-        <v>176.6482740895558</v>
+        <v>176.6482740895538</v>
       </c>
       <c r="P2" t="n">
-        <v>150.7652150331742</v>
+        <v>150.7652150331725</v>
       </c>
       <c r="Q2" t="n">
-        <v>113.2183977184739</v>
+        <v>113.2183977184726</v>
       </c>
       <c r="R2" t="n">
-        <v>65.8582970511566</v>
+        <v>65.85829705115583</v>
       </c>
       <c r="S2" t="n">
-        <v>23.89104641001701</v>
+        <v>23.89104641001673</v>
       </c>
       <c r="T2" t="n">
-        <v>4.589492294453073</v>
+        <v>4.58949229445302</v>
       </c>
       <c r="U2" t="n">
-        <v>0.08387421668903385</v>
+        <v>0.08387421668903286</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.560958278245113</v>
+        <v>0.5609582782451066</v>
       </c>
       <c r="H3" t="n">
-        <v>5.417676003051488</v>
+        <v>5.417676003051425</v>
       </c>
       <c r="I3" t="n">
-        <v>19.31369510624622</v>
+        <v>19.31369510624599</v>
       </c>
       <c r="J3" t="n">
-        <v>52.99825557753501</v>
+        <v>52.99825557753439</v>
       </c>
       <c r="K3" t="n">
-        <v>90.58246021995758</v>
+        <v>90.58246021995653</v>
       </c>
       <c r="L3" t="n">
-        <v>121.799296335633</v>
+        <v>121.7992963356316</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>142.1340339220167</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>131.3417120833317</v>
       </c>
       <c r="O3" t="n">
-        <v>133.4662443858011</v>
+        <v>133.4662443857995</v>
       </c>
       <c r="P3" t="n">
-        <v>107.1184277115602</v>
+        <v>107.118427711559</v>
       </c>
       <c r="Q3" t="n">
-        <v>71.60583214932356</v>
+        <v>71.60583214932274</v>
       </c>
       <c r="R3" t="n">
-        <v>34.82862011770975</v>
+        <v>34.82862011770935</v>
       </c>
       <c r="S3" t="n">
-        <v>10.41955398407041</v>
+        <v>10.41955398407028</v>
       </c>
       <c r="T3" t="n">
-        <v>2.261055516259907</v>
+        <v>2.26105551625988</v>
       </c>
       <c r="U3" t="n">
-        <v>0.03690514988454693</v>
+        <v>0.0369051498845465</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4702885766708382</v>
+        <v>0.4702885766708327</v>
       </c>
       <c r="H4" t="n">
-        <v>4.181292981673455</v>
+        <v>4.181292981673407</v>
       </c>
       <c r="I4" t="n">
-        <v>14.14286010570121</v>
+        <v>14.14286010570105</v>
       </c>
       <c r="J4" t="n">
-        <v>33.24940237062826</v>
+        <v>33.24940237062787</v>
       </c>
       <c r="K4" t="n">
-        <v>54.63898190775737</v>
+        <v>54.63898190775674</v>
       </c>
       <c r="L4" t="n">
-        <v>69.91908529886263</v>
+        <v>69.91908529886182</v>
       </c>
       <c r="M4" t="n">
-        <v>73.71987206850237</v>
+        <v>73.71987206850153</v>
       </c>
       <c r="N4" t="n">
-        <v>71.96697828272931</v>
+        <v>71.96697828272848</v>
       </c>
       <c r="O4" t="n">
-        <v>66.47315263707451</v>
+        <v>66.47315263707372</v>
       </c>
       <c r="P4" t="n">
-        <v>56.87926567298936</v>
+        <v>56.87926567298869</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.38025527013719</v>
+        <v>39.38025527013673</v>
       </c>
       <c r="R4" t="n">
-        <v>21.14588454739968</v>
+        <v>21.14588454739944</v>
       </c>
       <c r="S4" t="n">
-        <v>8.195847286163604</v>
+        <v>8.195847286163509</v>
       </c>
       <c r="T4" t="n">
-        <v>2.009414827593581</v>
+        <v>2.009414827593557</v>
       </c>
       <c r="U4" t="n">
-        <v>0.02565210418204575</v>
+        <v>0.02565210418204545</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31841,7 +31841,7 @@
         <v>228.6074749052106</v>
       </c>
       <c r="K12" t="n">
-        <v>264.0794745101537</v>
+        <v>268.6328944939249</v>
       </c>
       <c r="L12" t="n">
         <v>525.3801144414117</v>
@@ -31862,7 +31862,7 @@
         <v>308.8710807131168</v>
       </c>
       <c r="R12" t="n">
-        <v>150.2329239477351</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>44.94464770547171</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.365136486722153</v>
+        <v>5.365136486722154</v>
       </c>
       <c r="H14" t="n">
-        <v>54.94570404464326</v>
+        <v>54.94570404464327</v>
       </c>
       <c r="I14" t="n">
         <v>206.839424404356</v>
       </c>
       <c r="J14" t="n">
-        <v>455.3592528899347</v>
+        <v>455.3592528899348</v>
       </c>
       <c r="K14" t="n">
-        <v>682.4654803728836</v>
+        <v>682.4654803728837</v>
       </c>
       <c r="L14" t="n">
-        <v>846.6587761284069</v>
+        <v>846.658776128407</v>
       </c>
       <c r="M14" t="n">
-        <v>942.0710221241519</v>
+        <v>942.071022124152</v>
       </c>
       <c r="N14" t="n">
-        <v>957.3147161670513</v>
+        <v>957.3147161670514</v>
       </c>
       <c r="O14" t="n">
-        <v>903.9651402272078</v>
+        <v>903.9651402272079</v>
       </c>
       <c r="P14" t="n">
-        <v>771.5133332112546</v>
+        <v>771.5133332112547</v>
       </c>
       <c r="Q14" t="n">
-        <v>579.3743827805173</v>
+        <v>579.3743827805174</v>
       </c>
       <c r="R14" t="n">
-        <v>337.0177548340607</v>
+        <v>337.0177548340608</v>
       </c>
       <c r="S14" t="n">
         <v>122.2580476911812</v>
       </c>
       <c r="T14" t="n">
-        <v>23.48588497062623</v>
+        <v>23.48588497062624</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4292109189377721</v>
+        <v>0.4292109189377722</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,37 +32072,37 @@
         <v>27.72396318642307</v>
       </c>
       <c r="I15" t="n">
-        <v>98.83429201336106</v>
+        <v>98.83429201336108</v>
       </c>
       <c r="J15" t="n">
         <v>271.2088514980651</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>463.5391247204987</v>
       </c>
       <c r="L15" t="n">
-        <v>293.8221004211769</v>
+        <v>623.2855574676994</v>
       </c>
       <c r="M15" t="n">
-        <v>727.3448470843143</v>
+        <v>727.3448470843144</v>
       </c>
       <c r="N15" t="n">
-        <v>746.5955009044965</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>682.9890240571716</v>
+        <v>682.9890240571717</v>
       </c>
       <c r="P15" t="n">
-        <v>548.1589051818744</v>
+        <v>540.801122117894</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>178.2290748714828</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>53.32015626453297</v>
+        <v>53.32015626453298</v>
       </c>
       <c r="T15" t="n">
         <v>11.57053686118201</v>
@@ -32151,25 +32151,25 @@
         <v>21.39699986309099</v>
       </c>
       <c r="I16" t="n">
-        <v>72.37349237945293</v>
+        <v>72.37349237945294</v>
       </c>
       <c r="J16" t="n">
         <v>170.1477177252132</v>
       </c>
       <c r="K16" t="n">
-        <v>279.6049675360967</v>
+        <v>279.6049675360968</v>
       </c>
       <c r="L16" t="n">
         <v>357.798093825143</v>
       </c>
       <c r="M16" t="n">
-        <v>377.2479229440466</v>
+        <v>377.2479229440467</v>
       </c>
       <c r="N16" t="n">
-        <v>368.2778105270047</v>
+        <v>368.2778105270048</v>
       </c>
       <c r="O16" t="n">
-        <v>340.1641655126161</v>
+        <v>340.1641655126162</v>
       </c>
       <c r="P16" t="n">
         <v>291.069208771536</v>
@@ -32181,7 +32181,7 @@
         <v>108.210185401685</v>
       </c>
       <c r="S16" t="n">
-        <v>41.9407451304145</v>
+        <v>41.94074513041451</v>
       </c>
       <c r="T16" t="n">
         <v>10.28281179514597</v>
@@ -32315,28 +32315,28 @@
         <v>271.2088514980651</v>
       </c>
       <c r="K18" t="n">
-        <v>393.588795090132</v>
+        <v>463.5391247204987</v>
       </c>
       <c r="L18" t="n">
         <v>623.2855574676994</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>727.3448470843144</v>
       </c>
       <c r="N18" t="n">
-        <v>746.5955009044966</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>682.9890240571717</v>
       </c>
       <c r="P18" t="n">
-        <v>548.1589051818745</v>
+        <v>540.801122117894</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>178.2290748714828</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>53.32015626453298</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.365136486722153</v>
+        <v>5.365136486722155</v>
       </c>
       <c r="H20" t="n">
-        <v>54.94570404464326</v>
+        <v>54.94570404464328</v>
       </c>
       <c r="I20" t="n">
-        <v>206.839424404356</v>
+        <v>206.8394244043561</v>
       </c>
       <c r="J20" t="n">
-        <v>455.3592528899347</v>
+        <v>455.3592528899349</v>
       </c>
       <c r="K20" t="n">
-        <v>682.4654803728836</v>
+        <v>682.4654803728838</v>
       </c>
       <c r="L20" t="n">
-        <v>846.6587761284069</v>
+        <v>846.6587761284071</v>
       </c>
       <c r="M20" t="n">
-        <v>942.0710221241519</v>
+        <v>942.0710221241523</v>
       </c>
       <c r="N20" t="n">
-        <v>957.3147161670513</v>
+        <v>957.3147161670516</v>
       </c>
       <c r="O20" t="n">
-        <v>903.9651402272078</v>
+        <v>903.9651402272082</v>
       </c>
       <c r="P20" t="n">
-        <v>771.5133332112546</v>
+        <v>771.5133332112548</v>
       </c>
       <c r="Q20" t="n">
-        <v>579.3743827805173</v>
+        <v>579.3743827805175</v>
       </c>
       <c r="R20" t="n">
-        <v>337.0177548340607</v>
+        <v>337.0177548340608</v>
       </c>
       <c r="S20" t="n">
         <v>122.2580476911812</v>
       </c>
       <c r="T20" t="n">
-        <v>23.48588497062623</v>
+        <v>23.48588497062624</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4292109189377721</v>
+        <v>0.4292109189377723</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,43 +32540,43 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.870601092872143</v>
+        <v>2.870601092872144</v>
       </c>
       <c r="H21" t="n">
-        <v>27.72396318642307</v>
+        <v>27.72396318642308</v>
       </c>
       <c r="I21" t="n">
-        <v>98.83429201336106</v>
+        <v>98.83429201336111</v>
       </c>
       <c r="J21" t="n">
-        <v>271.2088514980651</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>197.1838334010262</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>623.2855574676993</v>
+        <v>623.2855574676995</v>
       </c>
       <c r="M21" t="n">
-        <v>727.3448470843143</v>
+        <v>727.3448470843146</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>746.5955009044967</v>
       </c>
       <c r="O21" t="n">
-        <v>682.9890240571716</v>
+        <v>682.9890240571718</v>
       </c>
       <c r="P21" t="n">
-        <v>548.1589051818744</v>
+        <v>395.616243874268</v>
       </c>
       <c r="Q21" t="n">
-        <v>366.429711433995</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>178.2290748714828</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>53.32015626453297</v>
+        <v>53.32015626453298</v>
       </c>
       <c r="T21" t="n">
         <v>11.57053686118201</v>
@@ -32622,46 +32622,46 @@
         <v>2.406615526523525</v>
       </c>
       <c r="H22" t="n">
-        <v>21.39699986309099</v>
+        <v>21.396999863091</v>
       </c>
       <c r="I22" t="n">
-        <v>72.37349237945293</v>
+        <v>72.37349237945295</v>
       </c>
       <c r="J22" t="n">
         <v>170.1477177252132</v>
       </c>
       <c r="K22" t="n">
-        <v>279.6049675360967</v>
+        <v>279.6049675360968</v>
       </c>
       <c r="L22" t="n">
-        <v>357.798093825143</v>
+        <v>357.7980938251431</v>
       </c>
       <c r="M22" t="n">
-        <v>377.2479229440466</v>
+        <v>377.2479229440468</v>
       </c>
       <c r="N22" t="n">
-        <v>368.2778105270047</v>
+        <v>368.2778105270048</v>
       </c>
       <c r="O22" t="n">
-        <v>340.1641655126161</v>
+        <v>340.1641655126163</v>
       </c>
       <c r="P22" t="n">
-        <v>291.069208771536</v>
+        <v>291.0692087715361</v>
       </c>
       <c r="Q22" t="n">
-        <v>201.5212328618926</v>
+        <v>201.5212328618927</v>
       </c>
       <c r="R22" t="n">
         <v>108.210185401685</v>
       </c>
       <c r="S22" t="n">
-        <v>41.9407451304145</v>
+        <v>41.94074513041451</v>
       </c>
       <c r="T22" t="n">
         <v>10.28281179514597</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1312699378103742</v>
+        <v>0.1312699378103743</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,37 +32698,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.365136486722154</v>
+        <v>5.365136486722155</v>
       </c>
       <c r="H23" t="n">
-        <v>54.94570404464327</v>
+        <v>54.94570404464328</v>
       </c>
       <c r="I23" t="n">
-        <v>206.839424404356</v>
+        <v>206.8394244043561</v>
       </c>
       <c r="J23" t="n">
-        <v>455.3592528899348</v>
+        <v>455.3592528899349</v>
       </c>
       <c r="K23" t="n">
-        <v>682.4654803728837</v>
+        <v>682.4654803728838</v>
       </c>
       <c r="L23" t="n">
-        <v>846.658776128407</v>
+        <v>846.6587761284071</v>
       </c>
       <c r="M23" t="n">
-        <v>942.071022124152</v>
+        <v>942.0710221241523</v>
       </c>
       <c r="N23" t="n">
-        <v>957.3147161670514</v>
+        <v>957.3147161670516</v>
       </c>
       <c r="O23" t="n">
-        <v>903.9651402272079</v>
+        <v>903.9651402272082</v>
       </c>
       <c r="P23" t="n">
-        <v>771.5133332112547</v>
+        <v>771.5133332112548</v>
       </c>
       <c r="Q23" t="n">
-        <v>579.3743827805174</v>
+        <v>579.3743827805175</v>
       </c>
       <c r="R23" t="n">
         <v>337.0177548340608</v>
@@ -32740,7 +32740,7 @@
         <v>23.48588497062624</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4292109189377722</v>
+        <v>0.4292109189377723</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,40 +32777,40 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.870601092872143</v>
+        <v>2.870601092872144</v>
       </c>
       <c r="H24" t="n">
-        <v>27.72396318642307</v>
+        <v>27.72396318642308</v>
       </c>
       <c r="I24" t="n">
-        <v>98.83429201336108</v>
+        <v>98.83429201336111</v>
       </c>
       <c r="J24" t="n">
         <v>271.2088514980651</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>463.5391247204988</v>
       </c>
       <c r="L24" t="n">
-        <v>623.2855574676994</v>
+        <v>623.2855574676995</v>
       </c>
       <c r="M24" t="n">
-        <v>171.4334526898184</v>
+        <v>727.3448470843146</v>
       </c>
       <c r="N24" t="n">
-        <v>746.5955009044966</v>
+        <v>746.5955009044967</v>
       </c>
       <c r="O24" t="n">
-        <v>682.9890240571717</v>
+        <v>474.5619499395717</v>
       </c>
       <c r="P24" t="n">
-        <v>548.1589051818745</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>366.429711433995</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>178.2290748714828</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>53.32015626453298</v>
@@ -32859,10 +32859,10 @@
         <v>2.406615526523525</v>
       </c>
       <c r="H25" t="n">
-        <v>21.39699986309099</v>
+        <v>21.396999863091</v>
       </c>
       <c r="I25" t="n">
-        <v>72.37349237945294</v>
+        <v>72.37349237945295</v>
       </c>
       <c r="J25" t="n">
         <v>170.1477177252132</v>
@@ -32871,22 +32871,22 @@
         <v>279.6049675360968</v>
       </c>
       <c r="L25" t="n">
-        <v>357.798093825143</v>
+        <v>357.7980938251431</v>
       </c>
       <c r="M25" t="n">
-        <v>377.2479229440467</v>
+        <v>377.2479229440468</v>
       </c>
       <c r="N25" t="n">
         <v>368.2778105270048</v>
       </c>
       <c r="O25" t="n">
-        <v>340.1641655126162</v>
+        <v>340.1641655126163</v>
       </c>
       <c r="P25" t="n">
-        <v>291.069208771536</v>
+        <v>291.0692087715361</v>
       </c>
       <c r="Q25" t="n">
-        <v>201.5212328618926</v>
+        <v>201.5212328618927</v>
       </c>
       <c r="R25" t="n">
         <v>108.210185401685</v>
@@ -32898,7 +32898,7 @@
         <v>10.28281179514597</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1312699378103742</v>
+        <v>0.1312699378103743</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,37 +32935,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.365136486722154</v>
+        <v>5.365136486722155</v>
       </c>
       <c r="H26" t="n">
-        <v>54.94570404464327</v>
+        <v>54.94570404464328</v>
       </c>
       <c r="I26" t="n">
-        <v>206.839424404356</v>
+        <v>206.8394244043561</v>
       </c>
       <c r="J26" t="n">
-        <v>455.3592528899348</v>
+        <v>455.3592528899349</v>
       </c>
       <c r="K26" t="n">
-        <v>682.4654803728837</v>
+        <v>682.4654803728838</v>
       </c>
       <c r="L26" t="n">
-        <v>846.658776128407</v>
+        <v>846.6587761284071</v>
       </c>
       <c r="M26" t="n">
-        <v>942.071022124152</v>
+        <v>942.0710221241523</v>
       </c>
       <c r="N26" t="n">
-        <v>957.3147161670514</v>
+        <v>957.3147161670516</v>
       </c>
       <c r="O26" t="n">
-        <v>903.9651402272079</v>
+        <v>903.9651402272082</v>
       </c>
       <c r="P26" t="n">
-        <v>771.5133332112547</v>
+        <v>771.5133332112548</v>
       </c>
       <c r="Q26" t="n">
-        <v>579.3743827805174</v>
+        <v>579.3743827805175</v>
       </c>
       <c r="R26" t="n">
         <v>337.0177548340608</v>
@@ -32977,7 +32977,7 @@
         <v>23.48588497062624</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4292109189377722</v>
+        <v>0.4292109189377723</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,40 +33014,40 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.870601092872143</v>
+        <v>2.870601092872144</v>
       </c>
       <c r="H27" t="n">
-        <v>27.72396318642307</v>
+        <v>27.72396318642308</v>
       </c>
       <c r="I27" t="n">
-        <v>98.83429201336108</v>
+        <v>98.83429201336111</v>
       </c>
       <c r="J27" t="n">
         <v>271.2088514980651</v>
       </c>
       <c r="K27" t="n">
-        <v>463.5391247204987</v>
+        <v>463.5391247204988</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>414.858483350099</v>
       </c>
       <c r="M27" t="n">
-        <v>727.3448470843144</v>
+        <v>727.3448470843146</v>
       </c>
       <c r="N27" t="n">
-        <v>746.5955009044966</v>
+        <v>746.5955009044967</v>
       </c>
       <c r="O27" t="n">
-        <v>682.9890240571717</v>
+        <v>682.9890240571718</v>
       </c>
       <c r="P27" t="n">
-        <v>151.2810027290642</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>366.429711433995</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>178.2290748714828</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>53.32015626453298</v>
@@ -33096,10 +33096,10 @@
         <v>2.406615526523525</v>
       </c>
       <c r="H28" t="n">
-        <v>21.39699986309099</v>
+        <v>21.396999863091</v>
       </c>
       <c r="I28" t="n">
-        <v>72.37349237945294</v>
+        <v>72.37349237945295</v>
       </c>
       <c r="J28" t="n">
         <v>170.1477177252132</v>
@@ -33108,22 +33108,22 @@
         <v>279.6049675360968</v>
       </c>
       <c r="L28" t="n">
-        <v>357.798093825143</v>
+        <v>357.7980938251431</v>
       </c>
       <c r="M28" t="n">
-        <v>377.2479229440467</v>
+        <v>377.2479229440468</v>
       </c>
       <c r="N28" t="n">
         <v>368.2778105270048</v>
       </c>
       <c r="O28" t="n">
-        <v>340.1641655126162</v>
+        <v>340.1641655126163</v>
       </c>
       <c r="P28" t="n">
-        <v>291.069208771536</v>
+        <v>291.0692087715361</v>
       </c>
       <c r="Q28" t="n">
-        <v>201.5212328618926</v>
+        <v>201.5212328618927</v>
       </c>
       <c r="R28" t="n">
         <v>108.210185401685</v>
@@ -33135,7 +33135,7 @@
         <v>10.28281179514597</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1312699378103742</v>
+        <v>0.1312699378103743</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,37 +33172,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.365136486722154</v>
+        <v>5.365136486722155</v>
       </c>
       <c r="H29" t="n">
-        <v>54.94570404464327</v>
+        <v>54.94570404464328</v>
       </c>
       <c r="I29" t="n">
-        <v>206.839424404356</v>
+        <v>206.8394244043561</v>
       </c>
       <c r="J29" t="n">
-        <v>455.3592528899348</v>
+        <v>455.3592528899349</v>
       </c>
       <c r="K29" t="n">
-        <v>682.4654803728837</v>
+        <v>682.4654803728838</v>
       </c>
       <c r="L29" t="n">
-        <v>846.658776128407</v>
+        <v>846.6587761284071</v>
       </c>
       <c r="M29" t="n">
-        <v>942.071022124152</v>
+        <v>942.0710221241523</v>
       </c>
       <c r="N29" t="n">
-        <v>957.3147161670514</v>
+        <v>957.3147161670516</v>
       </c>
       <c r="O29" t="n">
-        <v>903.9651402272079</v>
+        <v>903.9651402272082</v>
       </c>
       <c r="P29" t="n">
-        <v>771.5133332112547</v>
+        <v>771.5133332112548</v>
       </c>
       <c r="Q29" t="n">
-        <v>579.3743827805174</v>
+        <v>579.3743827805175</v>
       </c>
       <c r="R29" t="n">
         <v>337.0177548340608</v>
@@ -33214,7 +33214,7 @@
         <v>23.48588497062624</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4292109189377722</v>
+        <v>0.4292109189377723</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,37 +33251,37 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.870601092872143</v>
+        <v>2.870601092872144</v>
       </c>
       <c r="H30" t="n">
-        <v>27.72396318642307</v>
+        <v>27.72396318642308</v>
       </c>
       <c r="I30" t="n">
-        <v>98.83429201336108</v>
+        <v>98.83429201336111</v>
       </c>
       <c r="J30" t="n">
         <v>271.2088514980651</v>
       </c>
       <c r="K30" t="n">
-        <v>463.5391247204987</v>
+        <v>463.5391247204988</v>
       </c>
       <c r="L30" t="n">
-        <v>623.2855574676994</v>
+        <v>585.884798744851</v>
       </c>
       <c r="M30" t="n">
-        <v>727.3448470843144</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>746.5955009044967</v>
       </c>
       <c r="O30" t="n">
-        <v>449.1833036452176</v>
+        <v>682.9890240571718</v>
       </c>
       <c r="P30" t="n">
-        <v>548.1589051818745</v>
+        <v>548.1589051818746</v>
       </c>
       <c r="Q30" t="n">
-        <v>366.429711433995</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33333,10 +33333,10 @@
         <v>2.406615526523525</v>
       </c>
       <c r="H31" t="n">
-        <v>21.39699986309099</v>
+        <v>21.396999863091</v>
       </c>
       <c r="I31" t="n">
-        <v>72.37349237945294</v>
+        <v>72.37349237945295</v>
       </c>
       <c r="J31" t="n">
         <v>170.1477177252132</v>
@@ -33345,22 +33345,22 @@
         <v>279.6049675360968</v>
       </c>
       <c r="L31" t="n">
-        <v>357.798093825143</v>
+        <v>357.7980938251431</v>
       </c>
       <c r="M31" t="n">
-        <v>377.2479229440467</v>
+        <v>377.2479229440468</v>
       </c>
       <c r="N31" t="n">
         <v>368.2778105270048</v>
       </c>
       <c r="O31" t="n">
-        <v>340.1641655126162</v>
+        <v>340.1641655126163</v>
       </c>
       <c r="P31" t="n">
-        <v>291.069208771536</v>
+        <v>291.0692087715361</v>
       </c>
       <c r="Q31" t="n">
-        <v>201.5212328618926</v>
+        <v>201.5212328618927</v>
       </c>
       <c r="R31" t="n">
         <v>108.210185401685</v>
@@ -33372,7 +33372,7 @@
         <v>10.28281179514597</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1312699378103742</v>
+        <v>0.1312699378103743</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33497,31 +33497,31 @@
         <v>98.83429201336111</v>
       </c>
       <c r="J33" t="n">
-        <v>271.2088514980651</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>463.5391247204988</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>623.2855574676995</v>
       </c>
       <c r="M33" t="n">
-        <v>460.989555764841</v>
+        <v>727.3448470843146</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>746.5955009044967</v>
       </c>
       <c r="O33" t="n">
         <v>682.9890240571718</v>
       </c>
       <c r="P33" t="n">
-        <v>548.1589051818746</v>
+        <v>395.616243874268</v>
       </c>
       <c r="Q33" t="n">
-        <v>366.4297114339951</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>178.2290748714828</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>53.32015626453298</v>
@@ -33734,31 +33734,31 @@
         <v>98.83429201336111</v>
       </c>
       <c r="J36" t="n">
-        <v>271.2088514980651</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>463.5391247204988</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>623.2855574676995</v>
       </c>
       <c r="M36" t="n">
-        <v>386.1285465564051</v>
+        <v>727.3448470843146</v>
       </c>
       <c r="N36" t="n">
         <v>746.5955009044967</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>682.9890240571718</v>
       </c>
       <c r="P36" t="n">
-        <v>548.1589051818746</v>
+        <v>395.616243874268</v>
       </c>
       <c r="Q36" t="n">
-        <v>366.4297114339951</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>178.2290748714828</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>53.32015626453298</v>
@@ -33971,10 +33971,10 @@
         <v>98.83429201336111</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>271.2088514980651</v>
       </c>
       <c r="K39" t="n">
-        <v>463.5391247204988</v>
+        <v>381.3203324480814</v>
       </c>
       <c r="L39" t="n">
         <v>623.2855574676995</v>
@@ -33983,10 +33983,10 @@
         <v>727.3448470843146</v>
       </c>
       <c r="N39" t="n">
-        <v>235.8055829432317</v>
+        <v>746.5955009044967</v>
       </c>
       <c r="O39" t="n">
-        <v>682.9890240571718</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>548.1589051818746</v>
@@ -33995,7 +33995,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>178.2290748714828</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>53.32015626453298</v>
@@ -34208,13 +34208,13 @@
         <v>98.83429201336111</v>
       </c>
       <c r="J42" t="n">
-        <v>271.2088514980651</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>463.5391247204988</v>
       </c>
       <c r="L42" t="n">
-        <v>282.06925693979</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>727.3448470843146</v>
@@ -34223,16 +34223,16 @@
         <v>746.5955009044967</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>682.9890240571718</v>
       </c>
       <c r="P42" t="n">
         <v>548.1589051818746</v>
       </c>
       <c r="Q42" t="n">
-        <v>366.4297114339951</v>
+        <v>146.4726047201004</v>
       </c>
       <c r="R42" t="n">
-        <v>178.2290748714828</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>53.32015626453298</v>
@@ -34454,22 +34454,22 @@
         <v>623.2855574676995</v>
       </c>
       <c r="M45" t="n">
-        <v>259.9202647112219</v>
+        <v>727.3448470843146</v>
       </c>
       <c r="N45" t="n">
-        <v>746.5955009044967</v>
+        <v>664.3767086320794</v>
       </c>
       <c r="O45" t="n">
-        <v>682.9890240571718</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>548.1589051818746</v>
       </c>
       <c r="Q45" t="n">
-        <v>366.4297114339951</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>178.2290748714828</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>53.32015626453298</v>
@@ -34702,13 +34702,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>-5.761921188822667e-13</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>-1.702391678555956e-12</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -34717,7 +34717,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>-1.636279380359609e-12</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,19 +34778,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-1.636279380359609e-12</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-1.636279380359609e-12</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-1.636279380359609e-12</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-1.702391678555956e-12</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>-1.636279380359609e-12</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>-1.636279380359609e-12</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>-1.702391678555956e-12</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>-1.636279380359609e-12</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
+        <v>6.598225711743297</v>
+      </c>
+      <c r="O5" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>6.598225711743297</v>
-      </c>
       <c r="P5" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>6.598225711743297</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35100,16 +35100,16 @@
         <v>6.876045741711437</v>
       </c>
       <c r="M7" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="O7" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="P7" t="n">
         <v>6.598225711743297</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>9.219293901113987</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>14.36185758280975</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35185,13 +35185,13 @@
         <v>4.562286607642847</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>9.219293901113987</v>
       </c>
       <c r="P8" t="n">
         <v>14.36185758280975</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>14.36185758280975</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35337,16 +35337,16 @@
         <v>14.36185758280975</v>
       </c>
       <c r="M10" t="n">
+        <v>14.36185758280975</v>
+      </c>
+      <c r="N10" t="n">
         <v>13.78158050875683</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
       </c>
       <c r="O10" t="n">
         <v>14.36185758280975</v>
       </c>
       <c r="P10" t="n">
-        <v>14.36185758280975</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>101.7698482385439</v>
       </c>
       <c r="K12" t="n">
-        <v>126.2380355357947</v>
+        <v>130.7914555195659</v>
       </c>
       <c r="L12" t="n">
         <v>386.8257346615375</v>
@@ -35510,7 +35510,7 @@
         <v>168.8893066270953</v>
       </c>
       <c r="R12" t="n">
-        <v>4.553419983771164</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35647,28 +35647,28 @@
         <v>274.3133483632485</v>
       </c>
       <c r="K14" t="n">
-        <v>462.375629327903</v>
+        <v>462.3756293279031</v>
       </c>
       <c r="L14" t="n">
-        <v>610.8923611584196</v>
+        <v>610.8923611584198</v>
       </c>
       <c r="M14" t="n">
-        <v>711.7247888968792</v>
+        <v>711.7247888968793</v>
       </c>
       <c r="N14" t="n">
-        <v>727.9016525704603</v>
+        <v>727.9016525704606</v>
       </c>
       <c r="O14" t="n">
-        <v>673.8669288055211</v>
+        <v>673.8669288055212</v>
       </c>
       <c r="P14" t="n">
         <v>540.2803374559851</v>
       </c>
       <c r="Q14" t="n">
-        <v>357.0686929060678</v>
+        <v>357.0686929060679</v>
       </c>
       <c r="R14" t="n">
-        <v>121.4322170199286</v>
+        <v>121.4322170199287</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>144.3712248313984</v>
+        <v>144.3712248313985</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>325.6976857461397</v>
       </c>
       <c r="L15" t="n">
-        <v>155.2677206413027</v>
+        <v>484.7311776878252</v>
       </c>
       <c r="M15" t="n">
         <v>585.2108131622961</v>
       </c>
       <c r="N15" t="n">
-        <v>615.2537888211632</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>540.3927796127272</v>
+        <v>540.3927796127273</v>
       </c>
       <c r="P15" t="n">
-        <v>414.1844977675441</v>
+        <v>406.8267147035638</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>32.54957090751881</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>76.78853760854039</v>
+        <v>76.78853760854042</v>
       </c>
       <c r="K16" t="n">
-        <v>257.3354757102138</v>
+        <v>257.3354757102139</v>
       </c>
       <c r="L16" t="n">
         <v>385.3881190854592</v>
       </c>
       <c r="M16" t="n">
-        <v>416.8317999058872</v>
+        <v>416.8317999058873</v>
       </c>
       <c r="N16" t="n">
-        <v>412.4099829062333</v>
+        <v>412.4099829062334</v>
       </c>
       <c r="O16" t="n">
-        <v>364.7492934266558</v>
+        <v>364.7492934266559</v>
       </c>
       <c r="P16" t="n">
         <v>288.3477680364295</v>
@@ -35963,28 +35963,28 @@
         <v>144.3712248313985</v>
       </c>
       <c r="K18" t="n">
-        <v>255.747356115773</v>
+        <v>325.6976857461397</v>
       </c>
       <c r="L18" t="n">
         <v>484.7311776878252</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>585.2108131622961</v>
       </c>
       <c r="N18" t="n">
-        <v>615.2537888211633</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>540.3927796127273</v>
       </c>
       <c r="P18" t="n">
-        <v>414.1844977675443</v>
+        <v>406.8267147035638</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>32.54957090751884</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>88.61044917984349</v>
+        <v>88.61044917984346</v>
       </c>
       <c r="K19" t="n">
         <v>269.1573872815169</v>
@@ -36048,7 +36048,7 @@
         <v>397.2100306567622</v>
       </c>
       <c r="M19" t="n">
-        <v>428.6537114771904</v>
+        <v>428.6537114771903</v>
       </c>
       <c r="N19" t="n">
         <v>424.2318944775364</v>
@@ -36057,7 +36057,7 @@
         <v>376.5712049979589</v>
       </c>
       <c r="P19" t="n">
-        <v>300.1696796077326</v>
+        <v>300.1696796077325</v>
       </c>
       <c r="Q19" t="n">
         <v>127.1811011815013</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>274.3133483632485</v>
+        <v>274.3133483632486</v>
       </c>
       <c r="K20" t="n">
-        <v>462.375629327903</v>
+        <v>462.3756293279033</v>
       </c>
       <c r="L20" t="n">
-        <v>610.8923611584196</v>
+        <v>610.8923611584198</v>
       </c>
       <c r="M20" t="n">
-        <v>711.7247888968792</v>
+        <v>711.7247888968795</v>
       </c>
       <c r="N20" t="n">
-        <v>727.9016525704603</v>
+        <v>727.9016525704608</v>
       </c>
       <c r="O20" t="n">
-        <v>673.8669288055211</v>
+        <v>673.8669288055214</v>
       </c>
       <c r="P20" t="n">
-        <v>540.2803374559851</v>
+        <v>540.2803374559853</v>
       </c>
       <c r="Q20" t="n">
-        <v>357.0686929060678</v>
+        <v>357.068692906068</v>
       </c>
       <c r="R20" t="n">
-        <v>121.4322170199286</v>
+        <v>121.4322170199287</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>144.3712248313984</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>59.3423944266672</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>484.7311776878251</v>
+        <v>484.7311776878253</v>
       </c>
       <c r="M21" t="n">
-        <v>585.2108131622961</v>
+        <v>585.2108131622963</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>615.2537888211634</v>
       </c>
       <c r="O21" t="n">
-        <v>540.3927796127272</v>
+        <v>540.3927796127274</v>
       </c>
       <c r="P21" t="n">
-        <v>414.1844977675441</v>
+        <v>261.6418364599378</v>
       </c>
       <c r="Q21" t="n">
-        <v>226.4479373479734</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>32.54957090751881</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,16 +36276,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>88.6104491798435</v>
+        <v>88.61044917984347</v>
       </c>
       <c r="K22" t="n">
         <v>269.1573872815169</v>
       </c>
       <c r="L22" t="n">
-        <v>397.2100306567622</v>
+        <v>397.2100306567623</v>
       </c>
       <c r="M22" t="n">
-        <v>428.6537114771903</v>
+        <v>428.6537114771904</v>
       </c>
       <c r="N22" t="n">
         <v>424.2318944775364</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>274.3133483632485</v>
+        <v>274.3133483632486</v>
       </c>
       <c r="K23" t="n">
-        <v>462.3756293279031</v>
+        <v>462.3756293279033</v>
       </c>
       <c r="L23" t="n">
         <v>610.8923611584198</v>
       </c>
       <c r="M23" t="n">
-        <v>711.7247888968793</v>
+        <v>711.7247888968795</v>
       </c>
       <c r="N23" t="n">
-        <v>727.9016525704606</v>
+        <v>727.9016525704608</v>
       </c>
       <c r="O23" t="n">
-        <v>673.8669288055232</v>
+        <v>673.8669288055214</v>
       </c>
       <c r="P23" t="n">
-        <v>540.2803374559851</v>
+        <v>540.2803374559853</v>
       </c>
       <c r="Q23" t="n">
-        <v>357.0686929060679</v>
+        <v>357.068692906068</v>
       </c>
       <c r="R23" t="n">
         <v>121.4322170199287</v>
@@ -36437,28 +36437,28 @@
         <v>144.3712248313985</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>325.6976857461398</v>
       </c>
       <c r="L24" t="n">
-        <v>484.7311776878252</v>
+        <v>484.7311776878253</v>
       </c>
       <c r="M24" t="n">
-        <v>29.29941876780003</v>
+        <v>585.2108131622963</v>
       </c>
       <c r="N24" t="n">
-        <v>615.2537888211633</v>
+        <v>615.2537888211634</v>
       </c>
       <c r="O24" t="n">
-        <v>540.3927796127273</v>
+        <v>331.9657054951272</v>
       </c>
       <c r="P24" t="n">
-        <v>414.1844977675443</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>226.4479373479735</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>32.54957090751884</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36519,7 +36519,7 @@
         <v>269.1573872815169</v>
       </c>
       <c r="L25" t="n">
-        <v>397.2100306567622</v>
+        <v>397.2100306567623</v>
       </c>
       <c r="M25" t="n">
         <v>428.6537114771904</v>
@@ -36592,28 +36592,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>274.3133483632485</v>
+        <v>274.3133483632486</v>
       </c>
       <c r="K26" t="n">
-        <v>462.3756293279031</v>
+        <v>462.3756293279033</v>
       </c>
       <c r="L26" t="n">
-        <v>610.8923611584216</v>
+        <v>610.8923611584198</v>
       </c>
       <c r="M26" t="n">
-        <v>711.7247888968793</v>
+        <v>711.7247888968795</v>
       </c>
       <c r="N26" t="n">
-        <v>727.9016525704606</v>
+        <v>727.9016525704608</v>
       </c>
       <c r="O26" t="n">
-        <v>673.8669288055212</v>
+        <v>673.8669288055214</v>
       </c>
       <c r="P26" t="n">
-        <v>540.2803374559851</v>
+        <v>540.2803374559853</v>
       </c>
       <c r="Q26" t="n">
-        <v>357.0686929060679</v>
+        <v>357.068692906068</v>
       </c>
       <c r="R26" t="n">
         <v>121.4322170199287</v>
@@ -36674,28 +36674,28 @@
         <v>144.3712248313985</v>
       </c>
       <c r="K27" t="n">
-        <v>325.6976857461397</v>
+        <v>325.6976857461398</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>276.3041035702248</v>
       </c>
       <c r="M27" t="n">
-        <v>585.2108131622961</v>
+        <v>585.2108131622963</v>
       </c>
       <c r="N27" t="n">
-        <v>615.2537888211633</v>
+        <v>615.2537888211634</v>
       </c>
       <c r="O27" t="n">
-        <v>540.3927796127273</v>
+        <v>540.3927796127274</v>
       </c>
       <c r="P27" t="n">
-        <v>17.30659531473396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>226.4479373479735</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>32.54957090751884</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>88.61044917984349</v>
+        <v>88.61044917984347</v>
       </c>
       <c r="K28" t="n">
-        <v>269.1573872815169</v>
+        <v>269.157387281517</v>
       </c>
       <c r="L28" t="n">
         <v>397.2100306567622</v>
@@ -36762,7 +36762,7 @@
         <v>428.6537114771904</v>
       </c>
       <c r="N28" t="n">
-        <v>424.2318944775364</v>
+        <v>424.2318944775365</v>
       </c>
       <c r="O28" t="n">
         <v>376.5712049979589</v>
@@ -36832,25 +36832,25 @@
         <v>274.3133483632485</v>
       </c>
       <c r="K29" t="n">
-        <v>462.3756293279031</v>
+        <v>462.3756293279033</v>
       </c>
       <c r="L29" t="n">
         <v>610.8923611584198</v>
       </c>
       <c r="M29" t="n">
-        <v>711.7247888968793</v>
+        <v>711.7247888968795</v>
       </c>
       <c r="N29" t="n">
-        <v>727.9016525704606</v>
+        <v>727.9016525704608</v>
       </c>
       <c r="O29" t="n">
-        <v>673.8669288055212</v>
+        <v>673.8669288055214</v>
       </c>
       <c r="P29" t="n">
-        <v>540.2803374559851</v>
+        <v>540.2803374559853</v>
       </c>
       <c r="Q29" t="n">
-        <v>357.0686929060679</v>
+        <v>357.068692906068</v>
       </c>
       <c r="R29" t="n">
         <v>121.4322170199287</v>
@@ -36911,25 +36911,25 @@
         <v>144.3712248313985</v>
       </c>
       <c r="K30" t="n">
-        <v>325.6976857461397</v>
+        <v>325.6976857461398</v>
       </c>
       <c r="L30" t="n">
-        <v>484.7311776878252</v>
+        <v>447.3304189649768</v>
       </c>
       <c r="M30" t="n">
-        <v>585.2108131622961</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>615.2537888211634</v>
       </c>
       <c r="O30" t="n">
-        <v>306.5870592007732</v>
+        <v>540.3927796127274</v>
       </c>
       <c r="P30" t="n">
-        <v>414.1844977675443</v>
+        <v>414.1844977675444</v>
       </c>
       <c r="Q30" t="n">
-        <v>226.4479373479735</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>88.61044917984353</v>
+        <v>88.61044917984347</v>
       </c>
       <c r="K31" t="n">
         <v>269.157387281517</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>144.3712248313985</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>325.6976857461398</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>484.7311776878253</v>
       </c>
       <c r="M33" t="n">
-        <v>318.8555218428227</v>
+        <v>585.2108131622963</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>615.2537888211634</v>
       </c>
       <c r="O33" t="n">
         <v>540.3927796127274</v>
       </c>
       <c r="P33" t="n">
-        <v>414.1844977675444</v>
+        <v>261.6418364599378</v>
       </c>
       <c r="Q33" t="n">
-        <v>226.4479373479736</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>32.54957090751887</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>144.3712248313985</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>325.6976857461398</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>484.7311776878253</v>
       </c>
       <c r="M36" t="n">
-        <v>243.9945126343868</v>
+        <v>585.2108131622963</v>
       </c>
       <c r="N36" t="n">
         <v>615.2537888211634</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>540.3927796127274</v>
       </c>
       <c r="P36" t="n">
-        <v>414.1844977675444</v>
+        <v>261.6418364599378</v>
       </c>
       <c r="Q36" t="n">
-        <v>226.4479373479736</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>32.54957090751887</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>144.3712248313985</v>
       </c>
       <c r="K39" t="n">
-        <v>325.6976857461398</v>
+        <v>243.4788934737225</v>
       </c>
       <c r="L39" t="n">
         <v>484.7311776878253</v>
@@ -37631,10 +37631,10 @@
         <v>585.2108131622963</v>
       </c>
       <c r="N39" t="n">
-        <v>104.4638708598984</v>
+        <v>615.2537888211634</v>
       </c>
       <c r="O39" t="n">
-        <v>540.3927796127274</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>414.1844977675444</v>
@@ -37643,7 +37643,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>32.54957090751887</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,16 +37698,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>88.61044917984343</v>
+        <v>88.61044917984347</v>
       </c>
       <c r="K40" t="n">
         <v>269.1573872815169</v>
       </c>
       <c r="L40" t="n">
-        <v>397.2100306567622</v>
+        <v>397.2100306567623</v>
       </c>
       <c r="M40" t="n">
-        <v>428.6537114771903</v>
+        <v>428.6537114771904</v>
       </c>
       <c r="N40" t="n">
         <v>424.2318944775364</v>
@@ -37716,7 +37716,7 @@
         <v>376.5712049979589</v>
       </c>
       <c r="P40" t="n">
-        <v>300.1696796077325</v>
+        <v>300.1696796077326</v>
       </c>
       <c r="Q40" t="n">
         <v>127.1811011815013</v>
@@ -37792,7 +37792,7 @@
         <v>727.9016525704608</v>
       </c>
       <c r="O41" t="n">
-        <v>673.8669288055219</v>
+        <v>673.8669288055214</v>
       </c>
       <c r="P41" t="n">
         <v>540.2803374559853</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>144.3712248313985</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>325.6976857461398</v>
       </c>
       <c r="L42" t="n">
-        <v>143.5148771599158</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>585.2108131622963</v>
@@ -37871,16 +37871,16 @@
         <v>615.2537888211634</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>540.3927796127274</v>
       </c>
       <c r="P42" t="n">
         <v>414.1844977675444</v>
       </c>
       <c r="Q42" t="n">
-        <v>226.4479373479736</v>
+        <v>6.490830634078924</v>
       </c>
       <c r="R42" t="n">
-        <v>32.54957090751887</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>428.6537114771903</v>
       </c>
       <c r="N43" t="n">
-        <v>424.2318944775364</v>
+        <v>424.2318944775363</v>
       </c>
       <c r="O43" t="n">
         <v>376.5712049979589</v>
@@ -38102,22 +38102,22 @@
         <v>484.7311776878253</v>
       </c>
       <c r="M45" t="n">
-        <v>117.7862307892036</v>
+        <v>585.2108131622963</v>
       </c>
       <c r="N45" t="n">
-        <v>615.2537888211634</v>
+        <v>533.0349965487461</v>
       </c>
       <c r="O45" t="n">
-        <v>540.3927796127274</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>414.1844977675444</v>
       </c>
       <c r="Q45" t="n">
-        <v>226.4479373479736</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>32.54957090751887</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,25 +38172,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>88.61044917984343</v>
+        <v>88.61044917984349</v>
       </c>
       <c r="K46" t="n">
         <v>269.1573872815169</v>
       </c>
       <c r="L46" t="n">
-        <v>397.2100306567622</v>
+        <v>397.2100306567623</v>
       </c>
       <c r="M46" t="n">
-        <v>428.6537114771903</v>
+        <v>428.6537114771904</v>
       </c>
       <c r="N46" t="n">
-        <v>424.2318944775363</v>
+        <v>424.2318944775364</v>
       </c>
       <c r="O46" t="n">
         <v>376.5712049979589</v>
       </c>
       <c r="P46" t="n">
-        <v>300.1696796077325</v>
+        <v>300.1696796077326</v>
       </c>
       <c r="Q46" t="n">
         <v>127.1811011815013</v>
